--- a/server/client_data.xlsx
+++ b/server/client_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="17175" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="17175" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Securities" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="NCLAlertFile" sheetId="4" r:id="rId4"/>
     <sheet name="Trades" sheetId="5" r:id="rId5"/>
     <sheet name="HoldingStatement" sheetId="6" r:id="rId6"/>
+    <sheet name="TopTradingStocks" sheetId="7" r:id="rId7"/>
+    <sheet name="Pledged" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="267">
   <si>
     <t>Client Name</t>
   </si>
@@ -396,9 +398,6 @@
     <t>A153</t>
   </si>
   <si>
-    <t>AKSFE5556A</t>
-  </si>
-  <si>
     <t>EQUITY</t>
   </si>
   <si>
@@ -468,24 +467,12 @@
     <t>January</t>
   </si>
   <si>
-    <t>sdghhg</t>
-  </si>
-  <si>
-    <t>wjgnoeirgb</t>
-  </si>
-  <si>
     <t>wogreprouhepn</t>
   </si>
   <si>
     <t>weokgnen</t>
   </si>
   <si>
-    <t>kgnefjn</t>
-  </si>
-  <si>
-    <t>wpogieprn</t>
-  </si>
-  <si>
     <t>jhhuhdfv</t>
   </si>
   <si>
@@ -519,29 +506,329 @@
     <t>NextTDate</t>
   </si>
   <si>
-    <t>SellTradeQuantity</t>
-  </si>
-  <si>
-    <t>BuyTradeQuantity</t>
-  </si>
-  <si>
-    <t>SellTradeValue</t>
-  </si>
-  <si>
-    <t>BuyTradeValue</t>
-  </si>
-  <si>
     <t>MemberAccountType</t>
   </si>
   <si>
     <t>ClientBoID</t>
+  </si>
+  <si>
+    <t>Tanooj Shah</t>
+  </si>
+  <si>
+    <t>Ruby Lobo</t>
+  </si>
+  <si>
+    <t>GAIL</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>BSE</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>SBIN</t>
+  </si>
+  <si>
+    <t>ehrwjwr</t>
+  </si>
+  <si>
+    <t>ehehqe</t>
+  </si>
+  <si>
+    <t>wetjhjr</t>
+  </si>
+  <si>
+    <t>erewtwr</t>
+  </si>
+  <si>
+    <t>hetjhtr</t>
+  </si>
+  <si>
+    <t>wrgqehe</t>
+  </si>
+  <si>
+    <t>afbadbd</t>
+  </si>
+  <si>
+    <t>aenghrwj</t>
+  </si>
+  <si>
+    <t>fanadnag</t>
+  </si>
+  <si>
+    <t>abdheh</t>
+  </si>
+  <si>
+    <t>ndandsg</t>
+  </si>
+  <si>
+    <t>afhadhadg</t>
+  </si>
+  <si>
+    <t>PCDNZ9772X</t>
+  </si>
+  <si>
+    <t>SSPBW2268K</t>
+  </si>
+  <si>
+    <t>RSWMB8496M</t>
+  </si>
+  <si>
+    <t>NYBYF4994Z</t>
+  </si>
+  <si>
+    <t>Deepak Mishra</t>
+  </si>
+  <si>
+    <t>Adagatla Mamata</t>
+  </si>
+  <si>
+    <t>rb@gmail.com</t>
+  </si>
+  <si>
+    <t>dm@gmail.com</t>
+  </si>
+  <si>
+    <t>am@gmail.com</t>
+  </si>
+  <si>
+    <t>ts@gmail.com</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>SellPrice</t>
+  </si>
+  <si>
+    <t>BuyPrice</t>
+  </si>
+  <si>
+    <t>SellPricePerShare</t>
+  </si>
+  <si>
+    <t>BuyPricePerShare</t>
+  </si>
+  <si>
+    <t>Pledged</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Company1Buy</t>
+  </si>
+  <si>
+    <t>Company2</t>
+  </si>
+  <si>
+    <t>Company1</t>
+  </si>
+  <si>
+    <t>Company3</t>
+  </si>
+  <si>
+    <t>Company2Buy</t>
+  </si>
+  <si>
+    <t>Company3Buy</t>
+  </si>
+  <si>
+    <t>Company1Sell</t>
+  </si>
+  <si>
+    <t>Company3Sell</t>
+  </si>
+  <si>
+    <t>Company2Sell</t>
+  </si>
+  <si>
+    <t>SBI</t>
+  </si>
+  <si>
+    <t>Gail</t>
+  </si>
+  <si>
+    <t>Cadila</t>
+  </si>
+  <si>
+    <t>OwnsSymbol</t>
+  </si>
+  <si>
+    <t>WorksFor</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>sdvadsfbv</t>
+  </si>
+  <si>
+    <t>sdvsdfvfds</t>
+  </si>
+  <si>
+    <t>kjghkdh</t>
+  </si>
+  <si>
+    <t>fgndsgdaf</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>DematAccountNo</t>
+  </si>
+  <si>
+    <t>ClientCategory</t>
+  </si>
+  <si>
+    <t>TradeMemberName</t>
+  </si>
+  <si>
+    <t>DepositoryName</t>
+  </si>
+  <si>
+    <t>BeneficiaryName</t>
+  </si>
+  <si>
+    <t>BankName</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>Yes Bank</t>
+  </si>
+  <si>
+    <t>Bank of Baroda</t>
+  </si>
+  <si>
+    <t>Axis Bank</t>
+  </si>
+  <si>
+    <t>State Bank of India</t>
+  </si>
+  <si>
+    <t>Reporters Bungalow Opposite ICICI Bank, SV Rd, near Shopper's Stop, Andheri West, Mumbai, Maharashtra 400058</t>
+  </si>
+  <si>
+    <t>B/17, Sainath Rd, Malad, Daruwala Compound, Malad West, Mumbai, Maharashtra 400064</t>
+  </si>
+  <si>
+    <t>Swami Vivekananda Rd, Old City, Mahajan No Vando, Khamasa, Ahmedabad, Gujarat 380001</t>
+  </si>
+  <si>
+    <t>Satyam Complex, Jawahar Chowk, Bhairavnath Rd, Daxini Society, Maninagar, Ahmedabad, Gujarat 380008</t>
+  </si>
+  <si>
+    <t>Makarba Rd, Shama Society, Shrinand Nagar, Vejalpur, Ahmedabad, Gujarat 380051</t>
+  </si>
+  <si>
+    <t>CDSL</t>
+  </si>
+  <si>
+    <t>NSDL</t>
+  </si>
+  <si>
+    <t>Rubina Sharma</t>
+  </si>
+  <si>
+    <t>Franklin Lobo</t>
+  </si>
+  <si>
+    <t>Deepali Mishra</t>
+  </si>
+  <si>
+    <t>Shahrukh Khan</t>
+  </si>
+  <si>
+    <t>Karan Shah</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Zerodha</t>
+  </si>
+  <si>
+    <t>Airan Finstocks</t>
+  </si>
+  <si>
+    <t>Quantum</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>A321</t>
+  </si>
+  <si>
+    <t>A237</t>
+  </si>
+  <si>
+    <t>A158</t>
+  </si>
+  <si>
+    <t>A666</t>
+  </si>
+  <si>
+    <t>ENQXZ7928B</t>
+  </si>
+  <si>
+    <t>IYLGR1976F</t>
+  </si>
+  <si>
+    <t>YBVLN9071O</t>
+  </si>
+  <si>
+    <t>CAUZZ8570U</t>
+  </si>
+  <si>
+    <t>PanLink</t>
+  </si>
+  <si>
+    <t>KmpOfHDFC</t>
+  </si>
+  <si>
+    <t>MemberPan</t>
+  </si>
+  <si>
+    <t>N. K. Tiwary</t>
+  </si>
+  <si>
+    <t>Kishan &amp; Co.</t>
+  </si>
+  <si>
+    <t>H.M.Fatehpuria</t>
+  </si>
+  <si>
+    <t>K. Prasad &amp; Co.</t>
+  </si>
+  <si>
+    <t>Raj Kumar &amp; Co</t>
+  </si>
+  <si>
+    <t>M2MLoss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +851,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -573,7 +875,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -609,6 +911,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -617,7 +934,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -635,6 +952,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -930,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -944,21 +1279,22 @@
     <col min="4" max="4" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="7"/>
+    <col min="7" max="13" width="13.28515625" style="7" customWidth="1"/>
+    <col min="14" max="15" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="6" customFormat="1">
+    <row r="1" spans="1:27" s="6" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
@@ -969,60 +1305,87 @@
         <v>51</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="P1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="S1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="U1" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="V1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="6" customFormat="1">
+      <c r="AA1" s="30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>53</v>
@@ -1030,77 +1393,431 @@
       <c r="E2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="1">
-        <v>8080626605</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="F2">
+        <v>9821074160</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2">
+        <v>1000728</v>
+      </c>
+      <c r="J2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L2" t="s">
+        <v>244</v>
+      </c>
+      <c r="M2" t="s">
+        <v>243</v>
+      </c>
+      <c r="N2">
+        <v>123145</v>
+      </c>
+      <c r="O2" s="6">
         <v>500000</v>
       </c>
-      <c r="H2" s="1">
+      <c r="P2" s="1">
         <v>100000</v>
       </c>
-      <c r="I2" s="1">
-        <v>467358469689</v>
-      </c>
-      <c r="J2" s="1">
-        <v>657356874578</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2462564565623450</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="Q2" s="1">
+        <v>46735</v>
+      </c>
+      <c r="R2" s="1">
+        <v>65735</v>
+      </c>
+      <c r="S2" s="1">
+        <v>246256</v>
+      </c>
+      <c r="T2" s="1">
         <v>357675368</v>
       </c>
-      <c r="M2" s="1">
+      <c r="U2" s="1">
         <v>334636556</v>
       </c>
-      <c r="N2" s="1">
+      <c r="V2" s="1">
         <v>57656256</v>
       </c>
-      <c r="O2" s="1">
+      <c r="W2" s="1">
         <v>46767</v>
       </c>
-      <c r="P2" s="15">
+      <c r="X2" s="15">
         <v>43831</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Y2" s="15">
         <v>43862</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>148</v>
+      <c r="Z2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3">
+        <v>9921055426</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="H3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3">
+        <v>1023874</v>
+      </c>
+      <c r="J3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K3" t="s">
+        <v>237</v>
+      </c>
+      <c r="L3" t="s">
+        <v>245</v>
+      </c>
+      <c r="M3" t="s">
+        <v>247</v>
+      </c>
+      <c r="N3">
+        <v>131353</v>
+      </c>
+      <c r="O3" s="7">
+        <v>700000</v>
+      </c>
+      <c r="P3" s="7">
+        <v>200000</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>65735</v>
+      </c>
+      <c r="R3" s="1">
+        <v>46735</v>
+      </c>
+      <c r="S3" s="14">
+        <v>241063</v>
+      </c>
+      <c r="T3" s="1">
+        <v>334636556</v>
+      </c>
+      <c r="U3" s="1">
+        <v>57656256</v>
+      </c>
+      <c r="V3" s="1">
+        <v>357675368</v>
+      </c>
+      <c r="W3" s="7">
+        <v>42694</v>
+      </c>
+      <c r="X3" s="15">
+        <v>43831</v>
+      </c>
+      <c r="Y3" s="15">
+        <v>43862</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4">
+        <v>8477522264</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I4">
+        <v>7390431</v>
+      </c>
+      <c r="J4" t="s">
+        <v>240</v>
+      </c>
+      <c r="K4" t="s">
+        <v>237</v>
+      </c>
+      <c r="L4" t="s">
+        <v>246</v>
+      </c>
+      <c r="M4" t="s">
+        <v>248</v>
+      </c>
+      <c r="N4">
+        <v>135429</v>
+      </c>
+      <c r="O4" s="7">
+        <v>500000</v>
+      </c>
+      <c r="P4" s="7">
+        <v>500000</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>46735</v>
+      </c>
+      <c r="R4" s="1">
+        <v>65735</v>
+      </c>
+      <c r="S4" s="14">
+        <v>621040</v>
+      </c>
+      <c r="T4" s="1">
+        <v>57656256</v>
+      </c>
+      <c r="U4" s="1">
+        <v>334636556</v>
+      </c>
+      <c r="V4" s="1">
+        <v>334636556</v>
+      </c>
+      <c r="W4" s="7">
+        <v>26692</v>
+      </c>
+      <c r="X4" s="15">
+        <v>43831</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>43862</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5">
+        <v>9820565195</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="H5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5">
+        <v>2947294</v>
+      </c>
+      <c r="J5" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" t="s">
+        <v>236</v>
+      </c>
+      <c r="L5" t="s">
+        <v>244</v>
+      </c>
+      <c r="M5" t="s">
+        <v>243</v>
+      </c>
+      <c r="N5">
+        <v>124584</v>
+      </c>
+      <c r="O5" s="14">
+        <v>400000</v>
+      </c>
+      <c r="P5" s="7">
+        <v>150000</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>65735</v>
+      </c>
+      <c r="R5" s="1">
+        <v>46735</v>
+      </c>
+      <c r="S5" s="14">
+        <v>351203</v>
+      </c>
+      <c r="T5" s="1">
+        <v>334636556</v>
+      </c>
+      <c r="U5" s="1">
+        <v>57656256</v>
+      </c>
+      <c r="V5" s="1">
+        <v>357675368</v>
+      </c>
+      <c r="W5" s="7">
+        <v>25601</v>
+      </c>
+      <c r="X5" s="15">
+        <v>43831</v>
+      </c>
+      <c r="Y5" s="15">
+        <v>43862</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6">
+        <v>9973268525</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="H6" t="s">
+        <v>230</v>
+      </c>
+      <c r="I6">
+        <v>4980124</v>
+      </c>
+      <c r="J6" t="s">
+        <v>242</v>
+      </c>
+      <c r="K6" t="s">
+        <v>236</v>
+      </c>
+      <c r="L6" t="s">
+        <v>245</v>
+      </c>
+      <c r="M6" t="s">
+        <v>247</v>
+      </c>
+      <c r="N6">
+        <v>127538</v>
+      </c>
+      <c r="O6" s="14">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="14">
+        <v>10000</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>46735</v>
+      </c>
+      <c r="R6" s="1">
+        <v>65735</v>
+      </c>
+      <c r="S6" s="14">
+        <v>603626</v>
+      </c>
+      <c r="T6" s="1">
+        <v>57656256</v>
+      </c>
+      <c r="U6" s="1">
+        <v>334636556</v>
+      </c>
+      <c r="V6" s="1">
+        <v>334636556</v>
+      </c>
+      <c r="W6" s="14">
+        <v>31658</v>
+      </c>
+      <c r="X6" s="15">
+        <v>43831</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>43862</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="7"/>
+    <col min="9" max="9" width="9.140625" style="7"/>
+    <col min="10" max="10" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="7"/>
+    <col min="13" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1125,35 +1842,2074 @@
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="13">
-        <v>43856</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>150</v>
+        <v>43862</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>261</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>154</v>
-      </c>
+      <c r="E2" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="17">
+        <v>50</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="19">
+        <v>6600</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="13">
+        <v>43863</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" s="27">
+        <v>90</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="19">
+        <v>6520</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="13">
+        <v>43864</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G4" s="27">
+        <v>72</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="19">
+        <v>7500</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="13">
+        <v>43865</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="27">
+        <v>63</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="19">
+        <v>2300</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="13">
+        <v>43866</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="27">
+        <v>105</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="I6" s="19">
+        <v>1750</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="13">
+        <v>43867</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" s="27">
+        <v>60</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="19">
+        <v>8000</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="13">
+        <v>43868</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="27">
+        <v>30</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="19">
+        <v>4500</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="13">
+        <v>43869</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="27">
+        <v>52</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1800</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="25">
+        <v>43862</v>
+      </c>
+      <c r="B10" s="14">
+        <v>2</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="27">
+        <v>110</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="I10" s="19">
+        <v>14500</v>
+      </c>
+      <c r="J10" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="25">
+        <v>43863</v>
+      </c>
+      <c r="B11" s="14">
+        <v>2</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="27">
+        <v>111</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="I11" s="19">
+        <v>12000</v>
+      </c>
+      <c r="J11" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="25">
+        <v>43864</v>
+      </c>
+      <c r="B12" s="14">
+        <v>2</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" s="27">
+        <v>20</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I12" s="19">
+        <v>25000</v>
+      </c>
+      <c r="J12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="25">
+        <v>43865</v>
+      </c>
+      <c r="B13" s="14">
+        <v>2</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" s="27">
+        <v>60</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I13" s="19">
+        <v>75000</v>
+      </c>
+      <c r="J13" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="25">
+        <v>43866</v>
+      </c>
+      <c r="B14" s="14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="27">
+        <v>40</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I14" s="19">
+        <v>65000</v>
+      </c>
+      <c r="J14" t="s">
+        <v>182</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="25">
+        <v>43867</v>
+      </c>
+      <c r="B15" s="14">
+        <v>2</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" s="27">
+        <v>49</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I15" s="19">
+        <v>12000</v>
+      </c>
+      <c r="J15" t="s">
+        <v>182</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="25">
+        <v>43868</v>
+      </c>
+      <c r="B16" s="14">
+        <v>2</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="27">
+        <v>115</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="I16" s="19">
+        <v>165000</v>
+      </c>
+      <c r="J16" t="s">
+        <v>182</v>
+      </c>
+      <c r="K16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="25">
+        <v>43869</v>
+      </c>
+      <c r="B17" s="14">
+        <v>2</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="27">
+        <v>20</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I17" s="19">
+        <v>85000</v>
+      </c>
+      <c r="J17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="25">
+        <v>43870</v>
+      </c>
+      <c r="B18" s="14">
+        <v>2</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G18" s="27">
+        <v>69</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I18" s="19">
+        <v>67520</v>
+      </c>
+      <c r="J18" t="s">
+        <v>182</v>
+      </c>
+      <c r="K18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="25">
+        <v>43871</v>
+      </c>
+      <c r="B19" s="14">
+        <v>2</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" s="27">
+        <v>32</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I19" s="19">
+        <v>18900</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="25">
+        <v>43862</v>
+      </c>
+      <c r="B20" s="14">
+        <v>3</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="27">
+        <v>28</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I20" s="19">
+        <v>400</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="25">
+        <v>43863</v>
+      </c>
+      <c r="B21" s="14">
+        <v>3</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" s="27">
+        <v>49</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I21" s="19">
+        <v>5000</v>
+      </c>
+      <c r="J21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="25">
+        <v>43864</v>
+      </c>
+      <c r="B22" s="14">
+        <v>3</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" s="27">
+        <v>36</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I22" s="19">
+        <v>8900</v>
+      </c>
+      <c r="J22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="25">
+        <v>43865</v>
+      </c>
+      <c r="B23" s="14">
+        <v>3</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="27">
+        <v>20</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I23" s="19">
+        <v>1400</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="25">
+        <v>43866</v>
+      </c>
+      <c r="B24" s="14">
+        <v>3</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="27">
+        <v>120</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="I24" s="19">
+        <v>15000</v>
+      </c>
+      <c r="J24" t="s">
+        <v>183</v>
+      </c>
+      <c r="K24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="25">
+        <v>43867</v>
+      </c>
+      <c r="B25" s="14">
+        <v>3</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" s="27">
+        <v>36</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I25" s="19">
+        <v>1650</v>
+      </c>
+      <c r="J25" t="s">
+        <v>183</v>
+      </c>
+      <c r="K25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="25">
+        <v>43868</v>
+      </c>
+      <c r="B26" s="14">
+        <v>3</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="27">
+        <v>94</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I26" s="19">
+        <v>43000</v>
+      </c>
+      <c r="J26" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="25">
+        <v>43869</v>
+      </c>
+      <c r="B27" s="14">
+        <v>3</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" s="27">
+        <v>87</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I27" s="19">
+        <v>8900</v>
+      </c>
+      <c r="J27" t="s">
+        <v>183</v>
+      </c>
+      <c r="K27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="25">
+        <v>43870</v>
+      </c>
+      <c r="B28" s="14">
+        <v>3</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" s="27">
+        <v>52</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I28" s="19">
+        <v>65000</v>
+      </c>
+      <c r="J28" t="s">
+        <v>183</v>
+      </c>
+      <c r="K28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="25">
+        <v>43871</v>
+      </c>
+      <c r="B29" s="14">
+        <v>3</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="27">
+        <v>62</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I29" s="19">
+        <v>14789</v>
+      </c>
+      <c r="J29" t="s">
+        <v>183</v>
+      </c>
+      <c r="K29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="25">
+        <v>43862</v>
+      </c>
+      <c r="B30" s="14">
+        <v>4</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" s="27">
+        <v>40</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" s="19">
+        <v>150000</v>
+      </c>
+      <c r="J30" t="s">
+        <v>184</v>
+      </c>
+      <c r="K30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="25">
+        <v>43863</v>
+      </c>
+      <c r="B31" s="14">
+        <v>4</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G31" s="27">
+        <v>103</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="I31" s="19">
+        <v>175000</v>
+      </c>
+      <c r="J31" t="s">
+        <v>184</v>
+      </c>
+      <c r="K31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="25">
+        <v>43864</v>
+      </c>
+      <c r="B32" s="14">
+        <v>4</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" s="27">
+        <v>60</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I32" s="19">
+        <v>250000</v>
+      </c>
+      <c r="J32" t="s">
+        <v>184</v>
+      </c>
+      <c r="K32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="25">
+        <v>43865</v>
+      </c>
+      <c r="B33" s="14">
+        <v>4</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" s="27">
+        <v>50</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I33" s="19">
+        <v>125000</v>
+      </c>
+      <c r="J33" t="s">
+        <v>184</v>
+      </c>
+      <c r="K33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="25">
+        <v>43866</v>
+      </c>
+      <c r="B34" s="14">
+        <v>4</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" s="27">
+        <v>57</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34" s="19">
+        <v>100000</v>
+      </c>
+      <c r="J34" t="s">
+        <v>184</v>
+      </c>
+      <c r="K34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="25">
+        <v>43867</v>
+      </c>
+      <c r="B35" s="14">
+        <v>4</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" s="27">
+        <v>80</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I35" s="19">
+        <v>165000</v>
+      </c>
+      <c r="J35" t="s">
+        <v>184</v>
+      </c>
+      <c r="K35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="25">
+        <v>43868</v>
+      </c>
+      <c r="B36" s="14">
+        <v>4</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" s="27">
+        <v>39</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I36" s="19">
+        <v>4500</v>
+      </c>
+      <c r="J36" t="s">
+        <v>184</v>
+      </c>
+      <c r="K36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="25">
+        <v>43869</v>
+      </c>
+      <c r="B37" s="14">
+        <v>4</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G37" s="27">
+        <v>40</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I37" s="19">
+        <v>69450</v>
+      </c>
+      <c r="J37" t="s">
+        <v>184</v>
+      </c>
+      <c r="K37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="25">
+        <v>43870</v>
+      </c>
+      <c r="B38" s="14">
+        <v>4</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" s="27">
+        <v>5</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I38" s="19">
+        <v>456</v>
+      </c>
+      <c r="J38" t="s">
+        <v>184</v>
+      </c>
+      <c r="K38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="25">
+        <v>43871</v>
+      </c>
+      <c r="B39" s="14">
+        <v>4</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G39" s="27">
+        <v>105</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="I39" s="19">
+        <v>25</v>
+      </c>
+      <c r="J39" t="s">
+        <v>184</v>
+      </c>
+      <c r="K39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="25">
+        <v>43872</v>
+      </c>
+      <c r="B40" s="14">
+        <v>4</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G40" s="27">
+        <v>60</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I40" s="19">
+        <v>1489654</v>
+      </c>
+      <c r="J40" t="s">
+        <v>184</v>
+      </c>
+      <c r="K40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="25">
+        <v>43873</v>
+      </c>
+      <c r="B41" s="14">
+        <v>4</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" s="27">
+        <v>70</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I41" s="19">
+        <v>155</v>
+      </c>
+      <c r="J41" t="s">
+        <v>184</v>
+      </c>
+      <c r="K41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="25">
+        <v>43874</v>
+      </c>
+      <c r="B42" s="14">
+        <v>4</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42" s="27">
+        <v>45</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I42" s="19">
+        <v>214544</v>
+      </c>
+      <c r="J42" t="s">
+        <v>184</v>
+      </c>
+      <c r="K42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="25">
+        <v>43862</v>
+      </c>
+      <c r="B43" s="14">
+        <v>5</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G43" s="27">
+        <v>50</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I43" s="19">
+        <v>75000</v>
+      </c>
+      <c r="J43" t="s">
+        <v>185</v>
+      </c>
+      <c r="K43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="25">
+        <v>43863</v>
+      </c>
+      <c r="B44" s="14">
+        <v>5</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G44" s="27">
+        <v>110</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="I44" s="19">
+        <v>65000</v>
+      </c>
+      <c r="J44" t="s">
+        <v>185</v>
+      </c>
+      <c r="K44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="25">
+        <v>43864</v>
+      </c>
+      <c r="B45" s="14">
+        <v>5</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G45" s="27">
+        <v>110</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="I45" s="19">
+        <v>12000</v>
+      </c>
+      <c r="J45" t="s">
+        <v>185</v>
+      </c>
+      <c r="K45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="25">
+        <v>43865</v>
+      </c>
+      <c r="B46" s="14">
+        <v>5</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G46" s="27">
+        <v>60</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I46" s="19">
+        <v>165000</v>
+      </c>
+      <c r="J46" t="s">
+        <v>185</v>
+      </c>
+      <c r="K46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="25">
+        <v>43866</v>
+      </c>
+      <c r="B47" s="14">
+        <v>5</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" s="27">
+        <v>50</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I47" s="19">
+        <v>85000</v>
+      </c>
+      <c r="J47" t="s">
+        <v>185</v>
+      </c>
+      <c r="K47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="25">
+        <v>43867</v>
+      </c>
+      <c r="B48" s="14">
+        <v>5</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G48" s="27">
+        <v>40</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I48" s="19">
+        <v>67520</v>
+      </c>
+      <c r="J48" t="s">
+        <v>185</v>
+      </c>
+      <c r="K48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="25">
+        <v>43868</v>
+      </c>
+      <c r="B49" s="14">
+        <v>5</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G49" s="27">
+        <v>70</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I49" s="19">
+        <v>18900</v>
+      </c>
+      <c r="J49" t="s">
+        <v>185</v>
+      </c>
+      <c r="K49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="25">
+        <v>43869</v>
+      </c>
+      <c r="B50" s="14">
+        <v>5</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50" s="27">
+        <v>80</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I50" s="19">
+        <v>400</v>
+      </c>
+      <c r="J50" t="s">
+        <v>185</v>
+      </c>
+      <c r="K50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="25">
+        <v>43870</v>
+      </c>
+      <c r="B51" s="14">
+        <v>5</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G51" s="27">
+        <v>90</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I51" s="19">
+        <v>5000</v>
+      </c>
+      <c r="J51" t="s">
+        <v>185</v>
+      </c>
+      <c r="K51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="25">
+        <v>43871</v>
+      </c>
+      <c r="B52" s="14">
+        <v>5</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G52" s="27">
+        <v>50</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I52" s="19">
+        <v>8900</v>
+      </c>
+      <c r="J52" t="s">
+        <v>185</v>
+      </c>
+      <c r="K52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="25">
+        <v>43872</v>
+      </c>
+      <c r="B53" s="14">
+        <v>5</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="27">
+        <v>40</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I53" s="19">
+        <v>1400</v>
+      </c>
+      <c r="J53" t="s">
+        <v>185</v>
+      </c>
+      <c r="K53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="25">
+        <v>43873</v>
+      </c>
+      <c r="B54" s="14">
+        <v>5</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G54" s="27">
+        <v>70</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I54" s="19">
+        <v>15000</v>
+      </c>
+      <c r="J54" t="s">
+        <v>185</v>
+      </c>
+      <c r="K54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="25">
+        <v>43874</v>
+      </c>
+      <c r="B55" s="14">
+        <v>5</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G55" s="27">
+        <v>50</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I55" s="19">
+        <v>1650</v>
+      </c>
+      <c r="J55" t="s">
+        <v>185</v>
+      </c>
+      <c r="K55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1161,8 +3917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BS1"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="BN1" workbookViewId="0">
+      <selection activeCell="BW1" sqref="BW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1365,10 +4121,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1425,13 +4181,13 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" t="s">
-        <v>163</v>
+        <v>157</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="H1" t="s">
         <v>30</v>
@@ -1439,11 +4195,11 @@
       <c r="I1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="20" t="s">
         <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L1" t="s">
         <v>47</v>
@@ -1472,7 +4228,7 @@
       <c r="T1" t="s">
         <v>44</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="20" t="s">
         <v>33</v>
       </c>
       <c r="V1" t="s">
@@ -1482,7 +4238,7 @@
         <v>16</v>
       </c>
       <c r="X1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="Y1" t="s">
         <v>17</v>
@@ -1502,23 +4258,23 @@
       <c r="AD1" t="s">
         <v>22</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="20" t="s">
         <v>25</v>
       </c>
       <c r="AH1" t="s">
         <v>26</v>
       </c>
       <c r="AI1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AJ1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:36">
@@ -1585,11 +4341,11 @@
       <c r="U2" t="s">
         <v>124</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="W2" t="s">
         <v>125</v>
-      </c>
-      <c r="W2" t="s">
-        <v>126</v>
       </c>
       <c r="X2">
         <v>1</v>
@@ -1598,13 +4354,13 @@
         <v>117</v>
       </c>
       <c r="Z2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA2" s="16">
         <v>43831</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC2" s="16">
         <v>43842</v>
@@ -1628,6 +4384,446 @@
         <v>43831</v>
       </c>
       <c r="AJ2" s="16">
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="16">
+        <v>43831</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" t="s">
+        <v>249</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O3" t="s">
+        <v>120</v>
+      </c>
+      <c r="P3">
+        <v>150150650</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>12548789562312</v>
+      </c>
+      <c r="R3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U3" t="s">
+        <v>250</v>
+      </c>
+      <c r="V3" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="W3" t="s">
+        <v>125</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>43831</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC3" s="16">
+        <v>43842</v>
+      </c>
+      <c r="AD3">
+        <v>120</v>
+      </c>
+      <c r="AE3">
+        <v>35</v>
+      </c>
+      <c r="AF3">
+        <v>30000</v>
+      </c>
+      <c r="AG3">
+        <v>40000</v>
+      </c>
+      <c r="AH3">
+        <v>20000</v>
+      </c>
+      <c r="AI3" s="16">
+        <v>43831</v>
+      </c>
+      <c r="AJ3" s="16">
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="16">
+        <v>43831</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" t="s">
+        <v>249</v>
+      </c>
+      <c r="K4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" t="s">
+        <v>186</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>183</v>
+      </c>
+      <c r="O4" t="s">
+        <v>120</v>
+      </c>
+      <c r="P4">
+        <v>150150650</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>12548789562312</v>
+      </c>
+      <c r="R4" t="s">
+        <v>121</v>
+      </c>
+      <c r="S4" t="s">
+        <v>122</v>
+      </c>
+      <c r="T4" t="s">
+        <v>123</v>
+      </c>
+      <c r="U4" t="s">
+        <v>251</v>
+      </c>
+      <c r="V4" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="W4" t="s">
+        <v>125</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA4" s="16">
+        <v>43831</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC4" s="16">
+        <v>43842</v>
+      </c>
+      <c r="AD4">
+        <v>120</v>
+      </c>
+      <c r="AE4">
+        <v>15</v>
+      </c>
+      <c r="AF4">
+        <v>39103</v>
+      </c>
+      <c r="AG4">
+        <v>84000</v>
+      </c>
+      <c r="AH4">
+        <v>20000</v>
+      </c>
+      <c r="AI4" s="16">
+        <v>43831</v>
+      </c>
+      <c r="AJ4" s="16">
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="16">
+        <v>43831</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" t="s">
+        <v>187</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O5" t="s">
+        <v>120</v>
+      </c>
+      <c r="P5">
+        <v>150150650</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>12548789562312</v>
+      </c>
+      <c r="R5" t="s">
+        <v>121</v>
+      </c>
+      <c r="S5" t="s">
+        <v>122</v>
+      </c>
+      <c r="T5" t="s">
+        <v>123</v>
+      </c>
+      <c r="U5" t="s">
+        <v>252</v>
+      </c>
+      <c r="V5" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="W5" t="s">
+        <v>125</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA5" s="16">
+        <v>43831</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC5" s="16">
+        <v>43842</v>
+      </c>
+      <c r="AD5">
+        <v>120</v>
+      </c>
+      <c r="AE5">
+        <v>20</v>
+      </c>
+      <c r="AF5">
+        <v>50000</v>
+      </c>
+      <c r="AG5">
+        <v>45000</v>
+      </c>
+      <c r="AH5">
+        <v>20000</v>
+      </c>
+      <c r="AI5" s="16">
+        <v>43831</v>
+      </c>
+      <c r="AJ5" s="16">
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="16">
+        <v>43831</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" t="s">
+        <v>249</v>
+      </c>
+      <c r="K6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L6" t="s">
+        <v>163</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>185</v>
+      </c>
+      <c r="O6" t="s">
+        <v>120</v>
+      </c>
+      <c r="P6">
+        <v>150150650</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>12548789562312</v>
+      </c>
+      <c r="R6" t="s">
+        <v>121</v>
+      </c>
+      <c r="S6" t="s">
+        <v>122</v>
+      </c>
+      <c r="T6" t="s">
+        <v>123</v>
+      </c>
+      <c r="U6" t="s">
+        <v>253</v>
+      </c>
+      <c r="V6" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="W6" t="s">
+        <v>125</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA6" s="16">
+        <v>43831</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC6" s="16">
+        <v>43842</v>
+      </c>
+      <c r="AD6">
+        <v>120</v>
+      </c>
+      <c r="AE6">
+        <v>20</v>
+      </c>
+      <c r="AF6">
+        <v>10000</v>
+      </c>
+      <c r="AG6">
+        <v>15000</v>
+      </c>
+      <c r="AH6">
+        <v>20000</v>
+      </c>
+      <c r="AI6" s="16">
+        <v>43831</v>
+      </c>
+      <c r="AJ6" s="16">
         <v>43833</v>
       </c>
     </row>
@@ -1638,29 +4834,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1668,152 +4866,735 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>169</v>
-      </c>
       <c r="H1" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="I1" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="J1" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="K1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" s="16">
         <v>43831</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="10">
+      <c r="F2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="10">
         <v>12548789562312</v>
       </c>
-      <c r="G2">
-        <v>120</v>
-      </c>
-      <c r="H2">
-        <v>122</v>
+      <c r="H2" s="19">
+        <v>1500</v>
       </c>
       <c r="I2">
+        <f>H2*K2</f>
+        <v>75000</v>
+      </c>
+      <c r="J2">
+        <f>H2*L2</f>
+        <v>67500</v>
+      </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
+      <c r="L2">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
         <v>150</v>
       </c>
-      <c r="J2">
-        <v>150</v>
-      </c>
-      <c r="K2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="N2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="16">
-        <v>43831</v>
+        <v>43832</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="10">
+        <v>165</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="10">
         <v>12548789562312</v>
       </c>
-      <c r="G3">
-        <v>121.5</v>
-      </c>
-      <c r="H3">
-        <v>123</v>
+      <c r="H3" s="19">
+        <v>450</v>
       </c>
       <c r="I3">
-        <v>500</v>
+        <f t="shared" ref="I3:I16" si="0">H3*K3</f>
+        <v>18000</v>
       </c>
       <c r="J3">
-        <v>500</v>
-      </c>
-      <c r="K3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <f t="shared" ref="J3:J16" si="1">H3*L3</f>
+        <v>54000</v>
+      </c>
+      <c r="K3">
+        <v>40</v>
+      </c>
+      <c r="L3">
+        <v>120</v>
+      </c>
+      <c r="M3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="16">
-        <v>43831</v>
+        <v>43833</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="10">
+        <v>12548789562312</v>
+      </c>
+      <c r="H4" s="19">
+        <v>200</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>52000</v>
+      </c>
+      <c r="K4">
+        <v>200</v>
+      </c>
+      <c r="L4">
+        <v>260</v>
+      </c>
+      <c r="M4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="16">
+        <v>43831</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="17">
+        <v>2536573468735</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1800</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>72000</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>216000</v>
+      </c>
+      <c r="K5">
+        <v>40</v>
+      </c>
+      <c r="L5">
+        <v>120</v>
+      </c>
+      <c r="M5" t="s">
+        <v>175</v>
+      </c>
+      <c r="N5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="16">
+        <v>43832</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="17">
+        <v>34625437</v>
+      </c>
+      <c r="H6">
+        <v>900</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>72000</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>80</v>
+      </c>
+      <c r="M6" t="s">
+        <v>174</v>
+      </c>
+      <c r="N6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="16">
+        <v>43831</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="12">
+        <v>3</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="17">
+        <v>24571464</v>
+      </c>
+      <c r="H7">
+        <v>1250</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>87500</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>125000</v>
+      </c>
+      <c r="K7">
+        <v>70</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="M7" t="s">
+        <v>173</v>
+      </c>
+      <c r="N7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="16">
+        <v>43832</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="12">
+        <v>3</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="17">
+        <v>461357487468214</v>
+      </c>
+      <c r="H8">
+        <v>1400</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>280000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>364000</v>
+      </c>
+      <c r="K8">
+        <v>200</v>
+      </c>
+      <c r="L8">
+        <v>260</v>
+      </c>
+      <c r="M8" t="s">
+        <v>172</v>
+      </c>
+      <c r="N8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="16">
+        <v>43834</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="12">
+        <v>3</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="10">
-        <v>12548789562312</v>
-      </c>
-      <c r="G4">
-        <v>122</v>
-      </c>
-      <c r="H4">
-        <v>124</v>
-      </c>
-      <c r="I4">
+      <c r="F9" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="17">
+        <v>4613654135</v>
+      </c>
+      <c r="H9">
+        <v>520</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>26000</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>23400</v>
+      </c>
+      <c r="K9">
+        <v>50</v>
+      </c>
+      <c r="L9">
+        <v>45</v>
+      </c>
+      <c r="M9" t="s">
+        <v>171</v>
+      </c>
+      <c r="N9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="16">
+        <v>43835</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="12">
+        <v>3</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="17">
+        <v>45353453</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="K10">
+        <v>70</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10" t="s">
+        <v>170</v>
+      </c>
+      <c r="N10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="16">
+        <v>43832</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="12">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="17">
+        <v>6541351</v>
+      </c>
+      <c r="H11">
+        <v>1000</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>260000</v>
+      </c>
+      <c r="K11">
+        <v>200</v>
+      </c>
+      <c r="L11">
+        <v>260</v>
+      </c>
+      <c r="M11" t="s">
+        <v>175</v>
+      </c>
+      <c r="N11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="16">
+        <v>43833</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="17">
+        <v>16516</v>
+      </c>
+      <c r="H12">
+        <v>600</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>48000</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>80</v>
+      </c>
+      <c r="M12" t="s">
+        <v>174</v>
+      </c>
+      <c r="N12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="16">
+        <v>43831</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="12">
+        <v>5</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="17">
+        <v>65846516</v>
+      </c>
+      <c r="H13">
         <v>300</v>
       </c>
-      <c r="J4">
-        <v>300</v>
-      </c>
-      <c r="K4" t="s">
-        <v>160</v>
-      </c>
-      <c r="L4" t="s">
-        <v>159</v>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>13500</v>
+      </c>
+      <c r="K13">
+        <v>50</v>
+      </c>
+      <c r="L13">
+        <v>45</v>
+      </c>
+      <c r="M13" t="s">
+        <v>173</v>
+      </c>
+      <c r="N13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="16">
+        <v>43832</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="12">
+        <v>5</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="17">
+        <v>65168416</v>
+      </c>
+      <c r="H14">
+        <v>800</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>32000</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>96000</v>
+      </c>
+      <c r="K14">
+        <v>40</v>
+      </c>
+      <c r="L14">
+        <v>120</v>
+      </c>
+      <c r="M14" t="s">
+        <v>172</v>
+      </c>
+      <c r="N14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="16">
+        <v>43837</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="12">
+        <v>5</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="17">
+        <v>56160684</v>
+      </c>
+      <c r="H15">
+        <v>700</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>49000</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+      <c r="K15">
+        <v>70</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15" t="s">
+        <v>171</v>
+      </c>
+      <c r="N15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="16">
+        <v>43836</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="12">
+        <v>5</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1638485684</v>
+      </c>
+      <c r="H16">
+        <v>1100</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>110000</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>88000</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>80</v>
+      </c>
+      <c r="M16" t="s">
+        <v>170</v>
+      </c>
+      <c r="N16" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1821,8 +5602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1852,7 +5633,7 @@
         <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E1" t="s">
         <v>36</v>
@@ -1911,7 +5692,7 @@
         <v>12548789562312</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J2">
         <v>4687569276</v>
@@ -1927,6 +5708,1154 @@
       </c>
       <c r="N2">
         <v>3463156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="22">
+        <v>43862</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="19">
+        <v>200</v>
+      </c>
+      <c r="G2" s="19">
+        <v>150</v>
+      </c>
+      <c r="H2" s="19">
+        <v>500</v>
+      </c>
+      <c r="I2" s="19">
+        <v>500</v>
+      </c>
+      <c r="J2" s="19">
+        <v>450</v>
+      </c>
+      <c r="K2" s="19">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="22">
+        <v>43863</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="19">
+        <v>300</v>
+      </c>
+      <c r="G3" s="19">
+        <v>750</v>
+      </c>
+      <c r="H3" s="19">
+        <v>450</v>
+      </c>
+      <c r="I3" s="19">
+        <v>450</v>
+      </c>
+      <c r="J3" s="19">
+        <v>650</v>
+      </c>
+      <c r="K3" s="19">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="22">
+        <v>43864</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="19">
+        <v>250</v>
+      </c>
+      <c r="G4" s="19">
+        <v>450</v>
+      </c>
+      <c r="H4" s="19">
+        <v>200</v>
+      </c>
+      <c r="I4" s="19">
+        <v>100</v>
+      </c>
+      <c r="J4" s="19">
+        <v>120</v>
+      </c>
+      <c r="K4" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="22">
+        <v>43865</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="19">
+        <v>400</v>
+      </c>
+      <c r="G5" s="19">
+        <v>100</v>
+      </c>
+      <c r="H5" s="19">
+        <v>350</v>
+      </c>
+      <c r="I5" s="19">
+        <v>40</v>
+      </c>
+      <c r="J5" s="19">
+        <v>50</v>
+      </c>
+      <c r="K5" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="22">
+        <v>43862</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="19">
+        <v>250</v>
+      </c>
+      <c r="G6" s="19">
+        <v>450</v>
+      </c>
+      <c r="H6" s="19">
+        <v>200</v>
+      </c>
+      <c r="I6" s="19">
+        <v>100</v>
+      </c>
+      <c r="J6" s="19">
+        <v>120</v>
+      </c>
+      <c r="K6" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="22">
+        <v>43863</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="19">
+        <v>400</v>
+      </c>
+      <c r="G7" s="19">
+        <v>100</v>
+      </c>
+      <c r="H7" s="19">
+        <v>350</v>
+      </c>
+      <c r="I7" s="19">
+        <v>40</v>
+      </c>
+      <c r="J7" s="19">
+        <v>50</v>
+      </c>
+      <c r="K7" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="22">
+        <v>43864</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="19">
+        <v>200</v>
+      </c>
+      <c r="G8" s="19">
+        <v>150</v>
+      </c>
+      <c r="H8" s="19">
+        <v>500</v>
+      </c>
+      <c r="I8" s="19">
+        <v>500</v>
+      </c>
+      <c r="J8" s="19">
+        <v>450</v>
+      </c>
+      <c r="K8" s="19">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="22">
+        <v>43865</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="19">
+        <v>300</v>
+      </c>
+      <c r="G9" s="19">
+        <v>750</v>
+      </c>
+      <c r="H9" s="19">
+        <v>450</v>
+      </c>
+      <c r="I9" s="19">
+        <v>450</v>
+      </c>
+      <c r="J9" s="19">
+        <v>650</v>
+      </c>
+      <c r="K9" s="19">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="22">
+        <v>43862</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" s="19">
+        <v>250</v>
+      </c>
+      <c r="G10" s="19">
+        <v>450</v>
+      </c>
+      <c r="H10" s="19">
+        <v>200</v>
+      </c>
+      <c r="I10" s="19">
+        <v>100</v>
+      </c>
+      <c r="J10" s="19">
+        <v>120</v>
+      </c>
+      <c r="K10" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="22">
+        <v>43863</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="19">
+        <v>400</v>
+      </c>
+      <c r="G11" s="19">
+        <v>100</v>
+      </c>
+      <c r="H11" s="19">
+        <v>350</v>
+      </c>
+      <c r="I11" s="19">
+        <v>40</v>
+      </c>
+      <c r="J11" s="19">
+        <v>50</v>
+      </c>
+      <c r="K11" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="22">
+        <v>43864</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="19">
+        <v>200</v>
+      </c>
+      <c r="G12" s="19">
+        <v>150</v>
+      </c>
+      <c r="H12" s="19">
+        <v>500</v>
+      </c>
+      <c r="I12" s="19">
+        <v>500</v>
+      </c>
+      <c r="J12" s="19">
+        <v>450</v>
+      </c>
+      <c r="K12" s="19">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="22">
+        <v>43865</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="19">
+        <v>300</v>
+      </c>
+      <c r="G13" s="19">
+        <v>750</v>
+      </c>
+      <c r="H13" s="19">
+        <v>450</v>
+      </c>
+      <c r="I13" s="19">
+        <v>450</v>
+      </c>
+      <c r="J13" s="19">
+        <v>650</v>
+      </c>
+      <c r="K13" s="19">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="22">
+        <v>43862</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="19">
+        <v>250</v>
+      </c>
+      <c r="G14" s="19">
+        <v>450</v>
+      </c>
+      <c r="H14" s="19">
+        <v>200</v>
+      </c>
+      <c r="I14" s="19">
+        <v>100</v>
+      </c>
+      <c r="J14" s="19">
+        <v>120</v>
+      </c>
+      <c r="K14" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="22">
+        <v>43863</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="19">
+        <v>400</v>
+      </c>
+      <c r="G15" s="19">
+        <v>100</v>
+      </c>
+      <c r="H15" s="19">
+        <v>350</v>
+      </c>
+      <c r="I15" s="19">
+        <v>40</v>
+      </c>
+      <c r="J15" s="19">
+        <v>50</v>
+      </c>
+      <c r="K15" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="22">
+        <v>43864</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="19">
+        <v>200</v>
+      </c>
+      <c r="G16" s="19">
+        <v>150</v>
+      </c>
+      <c r="H16" s="19">
+        <v>500</v>
+      </c>
+      <c r="I16" s="19">
+        <v>500</v>
+      </c>
+      <c r="J16" s="19">
+        <v>450</v>
+      </c>
+      <c r="K16" s="19">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="22">
+        <v>43865</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="19">
+        <v>300</v>
+      </c>
+      <c r="G17" s="19">
+        <v>750</v>
+      </c>
+      <c r="H17" s="19">
+        <v>450</v>
+      </c>
+      <c r="I17" s="19">
+        <v>450</v>
+      </c>
+      <c r="J17" s="19">
+        <v>650</v>
+      </c>
+      <c r="K17" s="19">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="22">
+        <v>43862</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="19">
+        <v>250</v>
+      </c>
+      <c r="G18" s="19">
+        <v>450</v>
+      </c>
+      <c r="H18" s="19">
+        <v>200</v>
+      </c>
+      <c r="I18" s="19">
+        <v>100</v>
+      </c>
+      <c r="J18" s="19">
+        <v>120</v>
+      </c>
+      <c r="K18" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="22">
+        <v>43863</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" s="19">
+        <v>400</v>
+      </c>
+      <c r="G19" s="19">
+        <v>100</v>
+      </c>
+      <c r="H19" s="19">
+        <v>350</v>
+      </c>
+      <c r="I19" s="19">
+        <v>40</v>
+      </c>
+      <c r="J19" s="19">
+        <v>50</v>
+      </c>
+      <c r="K19" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="22">
+        <v>43864</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="19">
+        <v>200</v>
+      </c>
+      <c r="G20" s="19">
+        <v>150</v>
+      </c>
+      <c r="H20" s="19">
+        <v>500</v>
+      </c>
+      <c r="I20" s="19">
+        <v>500</v>
+      </c>
+      <c r="J20" s="19">
+        <v>450</v>
+      </c>
+      <c r="K20" s="19">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="22">
+        <v>43865</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F21" s="19">
+        <v>300</v>
+      </c>
+      <c r="G21" s="19">
+        <v>750</v>
+      </c>
+      <c r="H21" s="19">
+        <v>450</v>
+      </c>
+      <c r="I21" s="19">
+        <v>450</v>
+      </c>
+      <c r="J21" s="19">
+        <v>650</v>
+      </c>
+      <c r="K21" s="19">
+        <v>890</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="24">
+        <v>43862</v>
+      </c>
+      <c r="C2">
+        <v>65</v>
+      </c>
+      <c r="D2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="24">
+        <v>43863</v>
+      </c>
+      <c r="C3">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="24">
+        <v>43864</v>
+      </c>
+      <c r="C4">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="24">
+        <v>43865</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="24">
+        <v>43866</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="25">
+        <v>43862</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="25">
+        <v>43863</v>
+      </c>
+      <c r="C8">
+        <v>55</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="25">
+        <v>43864</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="25">
+        <v>43865</v>
+      </c>
+      <c r="C10">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="25">
+        <v>43866</v>
+      </c>
+      <c r="C11">
+        <v>70</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="25">
+        <v>43862</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="25">
+        <v>43863</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="25">
+        <v>43864</v>
+      </c>
+      <c r="C14">
+        <v>65</v>
+      </c>
+      <c r="D14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="25">
+        <v>43865</v>
+      </c>
+      <c r="C15">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="25">
+        <v>43866</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="25">
+        <v>43867</v>
+      </c>
+      <c r="C17">
+        <v>45</v>
+      </c>
+      <c r="D17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="26">
+        <v>43862</v>
+      </c>
+      <c r="C18">
+        <v>75</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="26">
+        <v>43863</v>
+      </c>
+      <c r="C19">
+        <v>75</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="26">
+        <v>43864</v>
+      </c>
+      <c r="C20">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="26">
+        <v>43865</v>
+      </c>
+      <c r="C21">
+        <v>65</v>
+      </c>
+      <c r="D21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="26">
+        <v>43866</v>
+      </c>
+      <c r="C22">
+        <v>75</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="26">
+        <v>43862</v>
+      </c>
+      <c r="C23">
+        <v>90</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="26">
+        <v>43863</v>
+      </c>
+      <c r="C24">
+        <v>80</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="26">
+        <v>43864</v>
+      </c>
+      <c r="C25">
+        <v>75</v>
+      </c>
+      <c r="D25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="26">
+        <v>43865</v>
+      </c>
+      <c r="C26">
+        <v>65</v>
+      </c>
+      <c r="D26">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="26">
+        <v>43866</v>
+      </c>
+      <c r="C27">
+        <v>70</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/server/client_data.xlsx
+++ b/server/client_data.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanooj/Downloads/dynamic_UI-prototype/server/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="17175" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="24320" windowHeight="11480" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Securities" sheetId="1" r:id="rId1"/>
-    <sheet name="M2M" sheetId="2" r:id="rId2"/>
+    <sheet name="M2M" sheetId="9" r:id="rId2"/>
     <sheet name="UCC" sheetId="3" r:id="rId3"/>
     <sheet name="NCLAlertFile" sheetId="4" r:id="rId4"/>
     <sheet name="Trades" sheetId="5" r:id="rId5"/>
@@ -16,12 +21,17 @@
     <sheet name="TopTradingStocks" sheetId="7" r:id="rId7"/>
     <sheet name="Pledged" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="269">
   <si>
     <t>Client Name</t>
   </si>
@@ -161,18 +171,9 @@
     <t>MemberID</t>
   </si>
   <si>
-    <t>TMCD</t>
-  </si>
-  <si>
     <t>MemberName</t>
   </si>
   <si>
-    <t>ClientValue</t>
-  </si>
-  <si>
-    <t>ProductValue</t>
-  </si>
-  <si>
     <t>NetBuy</t>
   </si>
   <si>
@@ -467,12 +468,6 @@
     <t>January</t>
   </si>
   <si>
-    <t>wogreprouhepn</t>
-  </si>
-  <si>
-    <t>weokgnen</t>
-  </si>
-  <si>
     <t>jhhuhdfv</t>
   </si>
   <si>
@@ -668,18 +663,6 @@
     <t>High</t>
   </si>
   <si>
-    <t>sdvadsfbv</t>
-  </si>
-  <si>
-    <t>sdvsdfvfds</t>
-  </si>
-  <si>
-    <t>kjghkdh</t>
-  </si>
-  <si>
-    <t>fgndsgdaf</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -806,6 +789,24 @@
     <t>MemberPan</t>
   </si>
   <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>AAAPL1234C</t>
+  </si>
+  <si>
+    <t>ABCPL5834S</t>
+  </si>
+  <si>
+    <t>AABCB1518L</t>
+  </si>
+  <si>
+    <t>AABAS4480Q</t>
+  </si>
+  <si>
+    <t>AABCS4681D</t>
+  </si>
+  <si>
     <t>N. K. Tiwary</t>
   </si>
   <si>
@@ -822,13 +823,28 @@
   </si>
   <si>
     <t>M2MLoss</t>
+  </si>
+  <si>
+    <t>TATA Motors</t>
+  </si>
+  <si>
+    <t>dhgvb2uyg</t>
+  </si>
+  <si>
+    <t>ejlbfu3rygfb3oq</t>
+  </si>
+  <si>
+    <t>fwebci2y</t>
+  </si>
+  <si>
+    <t>whdbqiwghv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -858,14 +874,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -875,7 +883,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -885,44 +893,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,7 +927,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -968,8 +961,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -977,6 +968,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1023,7 +1019,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1055,9 +1051,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1089,6 +1086,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1264,37 +1262,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="13.28515625" style="7" customWidth="1"/>
-    <col min="14" max="15" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="7"/>
+    <col min="2" max="2" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="13.33203125" style="7" customWidth="1"/>
+    <col min="15" max="16" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="6" customFormat="1">
+    <row r="1" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
@@ -1302,491 +1301,521 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB1" s="30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="28" t="s">
+      <c r="G2">
+        <v>9821074160</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2">
+        <v>1000728</v>
+      </c>
+      <c r="K2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L2" t="s">
+        <v>227</v>
+      </c>
+      <c r="M2" t="s">
+        <v>235</v>
+      </c>
+      <c r="N2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O2">
+        <v>123145</v>
+      </c>
+      <c r="P2" s="6">
+        <v>500000</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="R2" s="1">
+        <v>46735</v>
+      </c>
+      <c r="S2" s="1">
+        <v>65735</v>
+      </c>
+      <c r="T2" s="1">
+        <v>246256</v>
+      </c>
+      <c r="U2" s="1">
+        <v>357675368</v>
+      </c>
+      <c r="V2" s="1">
+        <v>334636556</v>
+      </c>
+      <c r="W2" s="1">
+        <v>57656256</v>
+      </c>
+      <c r="X2" s="1">
+        <v>46767</v>
+      </c>
+      <c r="Y2" s="15">
+        <v>43831</v>
+      </c>
+      <c r="Z2" s="15">
+        <v>43862</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3">
+        <v>9921055426</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="I3" t="s">
         <v>219</v>
       </c>
-      <c r="H1" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="J1" s="28" t="s">
+      <c r="J3">
+        <v>1023874</v>
+      </c>
+      <c r="K3" t="s">
+        <v>230</v>
+      </c>
+      <c r="L3" t="s">
+        <v>228</v>
+      </c>
+      <c r="M3" t="s">
+        <v>236</v>
+      </c>
+      <c r="N3" t="s">
+        <v>238</v>
+      </c>
+      <c r="O3">
+        <v>131353</v>
+      </c>
+      <c r="P3" s="7">
+        <v>700000</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>200000</v>
+      </c>
+      <c r="R3" s="1">
+        <v>65735</v>
+      </c>
+      <c r="S3" s="1">
+        <v>46735</v>
+      </c>
+      <c r="T3" s="14">
+        <v>241063</v>
+      </c>
+      <c r="U3" s="1">
+        <v>334636556</v>
+      </c>
+      <c r="V3" s="1">
+        <v>57656256</v>
+      </c>
+      <c r="W3" s="1">
+        <v>357675368</v>
+      </c>
+      <c r="X3" s="7">
+        <v>42694</v>
+      </c>
+      <c r="Y3" s="15">
+        <v>43831</v>
+      </c>
+      <c r="Z3" s="15">
+        <v>43862</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4">
+        <v>8477522264</v>
+      </c>
+      <c r="H4" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="K1" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="N1" s="28" t="s">
+      <c r="I4" t="s">
         <v>220</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA1" s="30" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="6" customFormat="1">
-      <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2">
-        <v>9821074160</v>
-      </c>
-      <c r="G2" s="29" t="s">
+      <c r="J4">
+        <v>7390431</v>
+      </c>
+      <c r="K4" t="s">
         <v>231</v>
       </c>
-      <c r="H2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I2">
-        <v>1000728</v>
-      </c>
-      <c r="J2" t="s">
-        <v>238</v>
-      </c>
-      <c r="K2" t="s">
-        <v>236</v>
-      </c>
-      <c r="L2" t="s">
-        <v>244</v>
-      </c>
-      <c r="M2" t="s">
-        <v>243</v>
-      </c>
-      <c r="N2">
-        <v>123145</v>
-      </c>
-      <c r="O2" s="6">
-        <v>500000</v>
-      </c>
-      <c r="P2" s="1">
-        <v>100000</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>46735</v>
-      </c>
-      <c r="R2" s="1">
-        <v>65735</v>
-      </c>
-      <c r="S2" s="1">
-        <v>246256</v>
-      </c>
-      <c r="T2" s="1">
-        <v>357675368</v>
-      </c>
-      <c r="U2" s="1">
-        <v>334636556</v>
-      </c>
-      <c r="V2" s="1">
-        <v>57656256</v>
-      </c>
-      <c r="W2" s="1">
-        <v>46767</v>
-      </c>
-      <c r="X2" s="15">
-        <v>43831</v>
-      </c>
-      <c r="Y2" s="15">
-        <v>43862</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="F3">
-        <v>9921055426</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="L4" t="s">
         <v>228</v>
       </c>
-      <c r="I3">
-        <v>1023874</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="M4" t="s">
+        <v>237</v>
+      </c>
+      <c r="N4" t="s">
         <v>239</v>
       </c>
-      <c r="K3" t="s">
-        <v>237</v>
-      </c>
-      <c r="L3" t="s">
-        <v>245</v>
-      </c>
-      <c r="M3" t="s">
-        <v>247</v>
-      </c>
-      <c r="N3">
-        <v>131353</v>
-      </c>
-      <c r="O3" s="7">
-        <v>700000</v>
-      </c>
-      <c r="P3" s="7">
-        <v>200000</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>65735</v>
-      </c>
-      <c r="R3" s="1">
-        <v>46735</v>
-      </c>
-      <c r="S3" s="14">
-        <v>241063</v>
-      </c>
-      <c r="T3" s="1">
-        <v>334636556</v>
-      </c>
-      <c r="U3" s="1">
-        <v>57656256</v>
-      </c>
-      <c r="V3" s="1">
-        <v>357675368</v>
-      </c>
-      <c r="W3" s="7">
-        <v>42694</v>
-      </c>
-      <c r="X3" s="15">
-        <v>43831</v>
-      </c>
-      <c r="Y3" s="15">
-        <v>43862</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4">
-        <v>8477522264</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="H4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I4">
-        <v>7390431</v>
-      </c>
-      <c r="J4" t="s">
-        <v>240</v>
-      </c>
-      <c r="K4" t="s">
-        <v>237</v>
-      </c>
-      <c r="L4" t="s">
-        <v>246</v>
-      </c>
-      <c r="M4" t="s">
-        <v>248</v>
-      </c>
-      <c r="N4">
+      <c r="O4">
         <v>135429</v>
-      </c>
-      <c r="O4" s="7">
-        <v>500000</v>
       </c>
       <c r="P4" s="7">
         <v>500000</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="7">
+        <v>500000</v>
+      </c>
+      <c r="R4" s="1">
         <v>46735</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>65735</v>
       </c>
-      <c r="S4" s="14">
+      <c r="T4" s="14">
         <v>621040</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>57656256</v>
-      </c>
-      <c r="U4" s="1">
-        <v>334636556</v>
       </c>
       <c r="V4" s="1">
         <v>334636556</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W4" s="1">
+        <v>334636556</v>
+      </c>
+      <c r="X4" s="7">
         <v>26692</v>
       </c>
-      <c r="X4" s="15">
+      <c r="Y4" s="15">
         <v>43831</v>
       </c>
-      <c r="Y4" s="15">
+      <c r="Z4" s="15">
         <v>43862</v>
       </c>
-      <c r="Z4" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F5">
+        <v>143</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5">
         <v>9820565195</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="H5" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="I5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5">
+        <v>2947294</v>
+      </c>
+      <c r="K5" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" t="s">
+        <v>227</v>
+      </c>
+      <c r="M5" t="s">
+        <v>235</v>
+      </c>
+      <c r="N5" t="s">
         <v>234</v>
       </c>
-      <c r="H5" t="s">
-        <v>168</v>
-      </c>
-      <c r="I5">
-        <v>2947294</v>
-      </c>
-      <c r="J5" t="s">
-        <v>241</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="O5">
+        <v>124584</v>
+      </c>
+      <c r="P5" s="14">
+        <v>400000</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>150000</v>
+      </c>
+      <c r="R5" s="1">
+        <v>65735</v>
+      </c>
+      <c r="S5" s="1">
+        <v>46735</v>
+      </c>
+      <c r="T5" s="14">
+        <v>351203</v>
+      </c>
+      <c r="U5" s="1">
+        <v>334636556</v>
+      </c>
+      <c r="V5" s="1">
+        <v>57656256</v>
+      </c>
+      <c r="W5" s="1">
+        <v>357675368</v>
+      </c>
+      <c r="X5" s="7">
+        <v>25601</v>
+      </c>
+      <c r="Y5" s="15">
+        <v>43831</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>43862</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6">
+        <v>9973268525</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="I6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J6">
+        <v>4980124</v>
+      </c>
+      <c r="K6" t="s">
+        <v>233</v>
+      </c>
+      <c r="L6" t="s">
+        <v>227</v>
+      </c>
+      <c r="M6" t="s">
         <v>236</v>
       </c>
-      <c r="L5" t="s">
-        <v>244</v>
-      </c>
-      <c r="M5" t="s">
-        <v>243</v>
-      </c>
-      <c r="N5">
-        <v>124584</v>
-      </c>
-      <c r="O5" s="14">
-        <v>400000</v>
-      </c>
-      <c r="P5" s="7">
-        <v>150000</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>65735</v>
-      </c>
-      <c r="R5" s="1">
-        <v>46735</v>
-      </c>
-      <c r="S5" s="14">
-        <v>351203</v>
-      </c>
-      <c r="T5" s="1">
-        <v>334636556</v>
-      </c>
-      <c r="U5" s="1">
-        <v>57656256</v>
-      </c>
-      <c r="V5" s="1">
-        <v>357675368</v>
-      </c>
-      <c r="W5" s="7">
-        <v>25601</v>
-      </c>
-      <c r="X5" s="15">
-        <v>43831</v>
-      </c>
-      <c r="Y5" s="15">
-        <v>43862</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="F6">
-        <v>9973268525</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="H6" t="s">
-        <v>230</v>
-      </c>
-      <c r="I6">
-        <v>4980124</v>
-      </c>
-      <c r="J6" t="s">
-        <v>242</v>
-      </c>
-      <c r="K6" t="s">
-        <v>236</v>
-      </c>
-      <c r="L6" t="s">
-        <v>245</v>
-      </c>
-      <c r="M6" t="s">
-        <v>247</v>
-      </c>
-      <c r="N6">
+      <c r="N6" t="s">
+        <v>238</v>
+      </c>
+      <c r="O6">
         <v>127538</v>
-      </c>
-      <c r="O6" s="14">
-        <v>10000</v>
       </c>
       <c r="P6" s="14">
         <v>10000</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="14">
+        <v>10000</v>
+      </c>
+      <c r="R6" s="1">
         <v>46735</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>65735</v>
       </c>
-      <c r="S6" s="14">
+      <c r="T6" s="14">
         <v>603626</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>57656256</v>
-      </c>
-      <c r="U6" s="1">
-        <v>334636556</v>
       </c>
       <c r="V6" s="1">
         <v>334636556</v>
       </c>
-      <c r="W6" s="14">
+      <c r="W6" s="1">
+        <v>334636556</v>
+      </c>
+      <c r="X6" s="14">
         <v>31658</v>
       </c>
-      <c r="X6" s="15">
+      <c r="Y6" s="15">
         <v>43831</v>
       </c>
-      <c r="Y6" s="15">
+      <c r="Z6" s="15">
         <v>43862</v>
       </c>
-      <c r="Z6" s="5" t="s">
-        <v>147</v>
+      <c r="AA6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
@@ -1794,2118 +1823,1467 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="7"/>
-    <col min="10" max="10" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="7"/>
-    <col min="13" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="K1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="13">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" s="13">
         <v>43862</v>
       </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>149</v>
+      <c r="F2" s="7">
+        <v>6600</v>
       </c>
       <c r="G2" s="17">
         <v>50</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" s="19">
-        <v>6600</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="13">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="13">
         <v>43863</v>
       </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>216</v>
+      <c r="F3" s="7">
+        <v>6520</v>
       </c>
       <c r="G3" s="27">
         <v>90</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I3" s="19">
-        <v>6520</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="13">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" s="13">
         <v>43864</v>
       </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>217</v>
+      <c r="F4" s="7">
+        <v>7500</v>
       </c>
       <c r="G4" s="27">
         <v>72</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I4" s="19">
-        <v>7500</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="13">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="13">
         <v>43865</v>
       </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>149</v>
+      <c r="F5" s="14">
+        <v>2300</v>
       </c>
       <c r="G5" s="27">
         <v>63</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I5" s="19">
-        <v>2300</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="13">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" s="13">
         <v>43866</v>
       </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>216</v>
+      <c r="F6" s="14">
+        <v>1750</v>
       </c>
       <c r="G6" s="27">
         <v>105</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="I6" s="19">
-        <v>1750</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="13">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="13">
         <v>43867</v>
       </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>217</v>
+      <c r="F7" s="14">
+        <v>8000</v>
       </c>
       <c r="G7" s="27">
         <v>60</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I7" s="19">
-        <v>8000</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="13">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" s="13">
         <v>43868</v>
       </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>149</v>
+      <c r="F8" s="14">
+        <v>4500</v>
       </c>
       <c r="G8" s="27">
         <v>30</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I8" s="19">
-        <v>4500</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="13">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" s="13">
         <v>43869</v>
       </c>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>216</v>
+      <c r="F9" s="14">
+        <v>1800</v>
       </c>
       <c r="G9" s="27">
         <v>52</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I9" s="19">
-        <v>1800</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>2</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="25">
         <v>43862</v>
       </c>
-      <c r="B10" s="14">
-        <v>2</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>217</v>
+      <c r="F10" s="14">
+        <v>14500</v>
       </c>
       <c r="G10" s="27">
         <v>110</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="I10" s="19">
-        <v>14500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>182</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>2</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E11" s="25">
         <v>43863</v>
       </c>
-      <c r="B11" s="14">
-        <v>2</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>149</v>
+      <c r="F11" s="14">
+        <v>12000</v>
       </c>
       <c r="G11" s="27">
         <v>111</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="I11" s="19">
-        <v>12000</v>
-      </c>
-      <c r="J11" t="s">
-        <v>182</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>2</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" s="25">
         <v>43864</v>
       </c>
-      <c r="B12" s="14">
-        <v>2</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>216</v>
+      <c r="F12" s="14">
+        <v>25000</v>
       </c>
       <c r="G12" s="27">
         <v>20</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I12" s="19">
-        <v>25000</v>
-      </c>
-      <c r="J12" t="s">
-        <v>182</v>
-      </c>
-      <c r="K12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>2</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E13" s="25">
         <v>43865</v>
       </c>
-      <c r="B13" s="14">
-        <v>2</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>217</v>
+      <c r="F13" s="14">
+        <v>75000</v>
       </c>
       <c r="G13" s="27">
         <v>60</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I13" s="19">
-        <v>75000</v>
-      </c>
-      <c r="J13" t="s">
-        <v>182</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E14" s="25">
         <v>43866</v>
       </c>
-      <c r="B14" s="14">
-        <v>2</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>149</v>
+      <c r="F14" s="14">
+        <v>65000</v>
       </c>
       <c r="G14" s="27">
         <v>40</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I14" s="19">
-        <v>65000</v>
-      </c>
-      <c r="J14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>2</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E15" s="25">
         <v>43867</v>
       </c>
-      <c r="B15" s="14">
-        <v>2</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>216</v>
+      <c r="F15" s="14">
+        <v>12000</v>
       </c>
       <c r="G15" s="27">
         <v>49</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I15" s="19">
-        <v>12000</v>
-      </c>
-      <c r="J15" t="s">
-        <v>182</v>
-      </c>
-      <c r="K15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>2</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E16" s="25">
         <v>43868</v>
       </c>
-      <c r="B16" s="14">
-        <v>2</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>217</v>
+      <c r="F16" s="14">
+        <v>165000</v>
       </c>
       <c r="G16" s="27">
         <v>115</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="I16" s="19">
-        <v>165000</v>
-      </c>
-      <c r="J16" t="s">
-        <v>182</v>
-      </c>
-      <c r="K16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>2</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E17" s="25">
         <v>43869</v>
       </c>
-      <c r="B17" s="14">
-        <v>2</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>149</v>
+      <c r="F17" s="14">
+        <v>85000</v>
       </c>
       <c r="G17" s="27">
         <v>20</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I17" s="19">
-        <v>85000</v>
-      </c>
-      <c r="J17" t="s">
-        <v>182</v>
-      </c>
-      <c r="K17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>2</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" s="25">
         <v>43870</v>
       </c>
-      <c r="B18" s="14">
-        <v>2</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>216</v>
+      <c r="F18" s="14">
+        <v>67520</v>
       </c>
       <c r="G18" s="27">
         <v>69</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I18" s="19">
-        <v>67520</v>
-      </c>
-      <c r="J18" t="s">
-        <v>182</v>
-      </c>
-      <c r="K18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>2</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E19" s="25">
         <v>43871</v>
       </c>
-      <c r="B19" s="14">
-        <v>2</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>217</v>
+      <c r="F19" s="14">
+        <v>18900</v>
       </c>
       <c r="G19" s="27">
         <v>32</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I19" s="19">
-        <v>18900</v>
-      </c>
-      <c r="J19" t="s">
-        <v>182</v>
-      </c>
-      <c r="K19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>3</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E20" s="25">
         <v>43862</v>
       </c>
-      <c r="B20" s="14">
-        <v>3</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>149</v>
+      <c r="F20" s="14">
+        <v>400</v>
       </c>
       <c r="G20" s="27">
         <v>28</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I20" s="19">
-        <v>400</v>
-      </c>
-      <c r="J20" t="s">
-        <v>183</v>
-      </c>
-      <c r="K20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>3</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E21" s="25">
         <v>43863</v>
       </c>
-      <c r="B21" s="14">
-        <v>3</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>216</v>
+      <c r="F21" s="14">
+        <v>5000</v>
       </c>
       <c r="G21" s="27">
         <v>49</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I21" s="19">
-        <v>5000</v>
-      </c>
-      <c r="J21" t="s">
-        <v>183</v>
-      </c>
-      <c r="K21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>3</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E22" s="25">
         <v>43864</v>
       </c>
-      <c r="B22" s="14">
-        <v>3</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>217</v>
+      <c r="F22" s="14">
+        <v>8900</v>
       </c>
       <c r="G22" s="27">
         <v>36</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I22" s="19">
-        <v>8900</v>
-      </c>
-      <c r="J22" t="s">
-        <v>183</v>
-      </c>
-      <c r="K22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>3</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E23" s="25">
         <v>43865</v>
       </c>
-      <c r="B23" s="14">
-        <v>3</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>149</v>
+      <c r="F23" s="14">
+        <v>1400</v>
       </c>
       <c r="G23" s="27">
         <v>20</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I23" s="19">
-        <v>1400</v>
-      </c>
-      <c r="J23" t="s">
-        <v>183</v>
-      </c>
-      <c r="K23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>3</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E24" s="25">
         <v>43866</v>
       </c>
-      <c r="B24" s="14">
-        <v>3</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>216</v>
+      <c r="F24" s="14">
+        <v>15000</v>
       </c>
       <c r="G24" s="27">
         <v>120</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="I24" s="19">
-        <v>15000</v>
-      </c>
-      <c r="J24" t="s">
-        <v>183</v>
-      </c>
-      <c r="K24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>3</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E25" s="25">
         <v>43867</v>
       </c>
-      <c r="B25" s="14">
-        <v>3</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>217</v>
+      <c r="F25" s="14">
+        <v>1650</v>
       </c>
       <c r="G25" s="27">
         <v>36</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I25" s="19">
-        <v>1650</v>
-      </c>
-      <c r="J25" t="s">
-        <v>183</v>
-      </c>
-      <c r="K25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>3</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E26" s="25">
         <v>43868</v>
       </c>
-      <c r="B26" s="14">
-        <v>3</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>149</v>
+      <c r="F26" s="14">
+        <v>43000</v>
       </c>
       <c r="G26" s="27">
         <v>94</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I26" s="19">
-        <v>43000</v>
-      </c>
-      <c r="J26" t="s">
-        <v>183</v>
-      </c>
-      <c r="K26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>3</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E27" s="25">
         <v>43869</v>
       </c>
-      <c r="B27" s="14">
-        <v>3</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>216</v>
+      <c r="F27" s="14">
+        <v>8900</v>
       </c>
       <c r="G27" s="27">
         <v>87</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I27" s="19">
-        <v>8900</v>
-      </c>
-      <c r="J27" t="s">
-        <v>183</v>
-      </c>
-      <c r="K27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>3</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E28" s="25">
         <v>43870</v>
       </c>
-      <c r="B28" s="14">
-        <v>3</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>217</v>
+      <c r="F28" s="14">
+        <v>65000</v>
       </c>
       <c r="G28" s="27">
         <v>52</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I28" s="19">
-        <v>65000</v>
-      </c>
-      <c r="J28" t="s">
-        <v>183</v>
-      </c>
-      <c r="K28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>3</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" s="25">
         <v>43871</v>
       </c>
-      <c r="B29" s="14">
-        <v>3</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>149</v>
+      <c r="F29" s="14">
+        <v>14789</v>
       </c>
       <c r="G29" s="27">
         <v>62</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I29" s="19">
-        <v>14789</v>
-      </c>
-      <c r="J29" t="s">
-        <v>183</v>
-      </c>
-      <c r="K29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>4</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E30" s="25">
         <v>43862</v>
       </c>
-      <c r="B30" s="14">
-        <v>4</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>216</v>
+      <c r="F30" s="14">
+        <v>150000</v>
       </c>
       <c r="G30" s="27">
         <v>40</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I30" s="19">
-        <v>150000</v>
-      </c>
-      <c r="J30" t="s">
-        <v>184</v>
-      </c>
-      <c r="K30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>4</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E31" s="25">
         <v>43863</v>
       </c>
-      <c r="B31" s="14">
-        <v>4</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>217</v>
+      <c r="F31" s="14">
+        <v>175000</v>
       </c>
       <c r="G31" s="27">
         <v>103</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="I31" s="19">
-        <v>175000</v>
-      </c>
-      <c r="J31" t="s">
-        <v>184</v>
-      </c>
-      <c r="K31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
+        <v>4</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E32" s="25">
         <v>43864</v>
       </c>
-      <c r="B32" s="14">
-        <v>4</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>149</v>
+      <c r="F32" s="14">
+        <v>250000</v>
       </c>
       <c r="G32" s="27">
         <v>60</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I32" s="19">
-        <v>250000</v>
-      </c>
-      <c r="J32" t="s">
-        <v>184</v>
-      </c>
-      <c r="K32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>4</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E33" s="25">
         <v>43865</v>
       </c>
-      <c r="B33" s="14">
-        <v>4</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>216</v>
+      <c r="F33" s="14">
+        <v>125000</v>
       </c>
       <c r="G33" s="27">
         <v>50</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I33" s="19">
-        <v>125000</v>
-      </c>
-      <c r="J33" t="s">
-        <v>184</v>
-      </c>
-      <c r="K33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>4</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E34" s="25">
         <v>43866</v>
       </c>
-      <c r="B34" s="14">
-        <v>4</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>217</v>
+      <c r="F34" s="14">
+        <v>100000</v>
       </c>
       <c r="G34" s="27">
         <v>57</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I34" s="19">
-        <v>100000</v>
-      </c>
-      <c r="J34" t="s">
-        <v>184</v>
-      </c>
-      <c r="K34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
+        <v>4</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E35" s="25">
         <v>43867</v>
       </c>
-      <c r="B35" s="14">
-        <v>4</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>149</v>
+      <c r="F35" s="14">
+        <v>165000</v>
       </c>
       <c r="G35" s="27">
         <v>80</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I35" s="19">
-        <v>165000</v>
-      </c>
-      <c r="J35" t="s">
-        <v>184</v>
-      </c>
-      <c r="K35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
+        <v>4</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E36" s="25">
         <v>43868</v>
       </c>
-      <c r="B36" s="14">
-        <v>4</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>216</v>
+      <c r="F36" s="14">
+        <v>4500</v>
       </c>
       <c r="G36" s="27">
         <v>39</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I36" s="19">
-        <v>4500</v>
-      </c>
-      <c r="J36" t="s">
-        <v>184</v>
-      </c>
-      <c r="K36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="14">
+        <v>4</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E37" s="25">
         <v>43869</v>
       </c>
-      <c r="B37" s="14">
-        <v>4</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>217</v>
+      <c r="F37" s="14">
+        <v>69450</v>
       </c>
       <c r="G37" s="27">
         <v>40</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I37" s="19">
-        <v>69450</v>
-      </c>
-      <c r="J37" t="s">
-        <v>184</v>
-      </c>
-      <c r="K37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="14">
+        <v>4</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E38" s="25">
         <v>43870</v>
       </c>
-      <c r="B38" s="14">
-        <v>4</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>149</v>
+      <c r="F38" s="14">
+        <v>456</v>
       </c>
       <c r="G38" s="27">
         <v>5</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I38" s="19">
-        <v>456</v>
-      </c>
-      <c r="J38" t="s">
-        <v>184</v>
-      </c>
-      <c r="K38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="14">
+        <v>4</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E39" s="25">
         <v>43871</v>
       </c>
-      <c r="B39" s="14">
-        <v>4</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>216</v>
+      <c r="F39" s="14">
+        <v>25</v>
       </c>
       <c r="G39" s="27">
         <v>105</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="I39" s="19">
-        <v>25</v>
-      </c>
-      <c r="J39" t="s">
-        <v>184</v>
-      </c>
-      <c r="K39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="14">
+        <v>4</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E40" s="25">
         <v>43872</v>
       </c>
-      <c r="B40" s="14">
-        <v>4</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>217</v>
+      <c r="F40" s="14">
+        <v>1489654</v>
       </c>
       <c r="G40" s="27">
         <v>60</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I40" s="19">
-        <v>1489654</v>
-      </c>
-      <c r="J40" t="s">
-        <v>184</v>
-      </c>
-      <c r="K40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="14">
+        <v>4</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E41" s="25">
         <v>43873</v>
       </c>
-      <c r="B41" s="14">
-        <v>4</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>149</v>
+      <c r="F41" s="14">
+        <v>155</v>
       </c>
       <c r="G41" s="27">
         <v>70</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I41" s="19">
-        <v>155</v>
-      </c>
-      <c r="J41" t="s">
-        <v>184</v>
-      </c>
-      <c r="K41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="14">
+        <v>4</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E42" s="25">
         <v>43874</v>
       </c>
-      <c r="B42" s="14">
-        <v>4</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>216</v>
+      <c r="F42" s="14">
+        <v>214544</v>
       </c>
       <c r="G42" s="27">
         <v>45</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I42" s="19">
-        <v>214544</v>
-      </c>
-      <c r="J42" t="s">
-        <v>184</v>
-      </c>
-      <c r="K42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="14">
+        <v>5</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E43" s="25">
         <v>43862</v>
       </c>
-      <c r="B43" s="14">
-        <v>5</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>217</v>
+      <c r="F43" s="14">
+        <v>75000</v>
       </c>
       <c r="G43" s="27">
         <v>50</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I43" s="19">
-        <v>75000</v>
-      </c>
-      <c r="J43" t="s">
-        <v>185</v>
-      </c>
-      <c r="K43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="14">
+        <v>5</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E44" s="25">
         <v>43863</v>
       </c>
-      <c r="B44" s="14">
-        <v>5</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>149</v>
+      <c r="F44" s="14">
+        <v>65000</v>
       </c>
       <c r="G44" s="27">
         <v>110</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="I44" s="19">
-        <v>65000</v>
-      </c>
-      <c r="J44" t="s">
-        <v>185</v>
-      </c>
-      <c r="K44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="14">
+        <v>5</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E45" s="25">
         <v>43864</v>
       </c>
-      <c r="B45" s="14">
-        <v>5</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>216</v>
+      <c r="F45" s="14">
+        <v>12000</v>
       </c>
       <c r="G45" s="27">
         <v>110</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="I45" s="19">
-        <v>12000</v>
-      </c>
-      <c r="J45" t="s">
-        <v>185</v>
-      </c>
-      <c r="K45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="14">
+        <v>5</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E46" s="25">
         <v>43865</v>
       </c>
-      <c r="B46" s="14">
-        <v>5</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>217</v>
+      <c r="F46" s="14">
+        <v>165000</v>
       </c>
       <c r="G46" s="27">
         <v>60</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I46" s="19">
-        <v>165000</v>
-      </c>
-      <c r="J46" t="s">
-        <v>185</v>
-      </c>
-      <c r="K46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="14">
+        <v>5</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E47" s="25">
         <v>43866</v>
       </c>
-      <c r="B47" s="14">
-        <v>5</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>149</v>
+      <c r="F47" s="14">
+        <v>85000</v>
       </c>
       <c r="G47" s="27">
         <v>50</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I47" s="19">
-        <v>85000</v>
-      </c>
-      <c r="J47" t="s">
-        <v>185</v>
-      </c>
-      <c r="K47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="14">
+        <v>5</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E48" s="25">
         <v>43867</v>
       </c>
-      <c r="B48" s="14">
-        <v>5</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>216</v>
+      <c r="F48" s="14">
+        <v>67520</v>
       </c>
       <c r="G48" s="27">
         <v>40</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I48" s="19">
-        <v>67520</v>
-      </c>
-      <c r="J48" t="s">
-        <v>185</v>
-      </c>
-      <c r="K48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="14">
+        <v>5</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E49" s="25">
         <v>43868</v>
       </c>
-      <c r="B49" s="14">
-        <v>5</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>217</v>
+      <c r="F49" s="14">
+        <v>18900</v>
       </c>
       <c r="G49" s="27">
         <v>70</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I49" s="19">
-        <v>18900</v>
-      </c>
-      <c r="J49" t="s">
-        <v>185</v>
-      </c>
-      <c r="K49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="14">
+        <v>5</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E50" s="25">
         <v>43869</v>
       </c>
-      <c r="B50" s="14">
-        <v>5</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>149</v>
+      <c r="F50" s="14">
+        <v>400</v>
       </c>
       <c r="G50" s="27">
         <v>80</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I50" s="19">
-        <v>400</v>
-      </c>
-      <c r="J50" t="s">
-        <v>185</v>
-      </c>
-      <c r="K50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="14">
+        <v>5</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E51" s="25">
         <v>43870</v>
       </c>
-      <c r="B51" s="14">
-        <v>5</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>216</v>
+      <c r="F51" s="14">
+        <v>5000</v>
       </c>
       <c r="G51" s="27">
         <v>90</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I51" s="19">
-        <v>5000</v>
-      </c>
-      <c r="J51" t="s">
-        <v>185</v>
-      </c>
-      <c r="K51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="14">
+        <v>5</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E52" s="25">
         <v>43871</v>
       </c>
-      <c r="B52" s="14">
-        <v>5</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>217</v>
+      <c r="F52" s="14">
+        <v>8900</v>
       </c>
       <c r="G52" s="27">
         <v>50</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I52" s="19">
-        <v>8900</v>
-      </c>
-      <c r="J52" t="s">
-        <v>185</v>
-      </c>
-      <c r="K52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="14">
+        <v>5</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E53" s="25">
         <v>43872</v>
       </c>
-      <c r="B53" s="14">
-        <v>5</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>149</v>
+      <c r="F53" s="14">
+        <v>1400</v>
       </c>
       <c r="G53" s="27">
         <v>40</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I53" s="19">
-        <v>1400</v>
-      </c>
-      <c r="J53" t="s">
-        <v>185</v>
-      </c>
-      <c r="K53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="14">
+        <v>5</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E54" s="25">
         <v>43873</v>
       </c>
-      <c r="B54" s="14">
-        <v>5</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>216</v>
+      <c r="F54" s="14">
+        <v>15000</v>
       </c>
       <c r="G54" s="27">
         <v>70</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I54" s="19">
-        <v>15000</v>
-      </c>
-      <c r="J54" t="s">
-        <v>185</v>
-      </c>
-      <c r="K54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="14">
+        <v>5</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E55" s="25">
         <v>43874</v>
       </c>
-      <c r="B55" s="14">
-        <v>5</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>217</v>
+      <c r="F55" s="14">
+        <v>1650</v>
       </c>
       <c r="G55" s="27">
         <v>50</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I55" s="19">
-        <v>1650</v>
-      </c>
-      <c r="J55" t="s">
-        <v>185</v>
-      </c>
-      <c r="K55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F56" s="14"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F57" s="14"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F58" s="14"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F59" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3914,204 +3292,204 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS1"/>
   <sheetViews>
     <sheetView topLeftCell="BN1" workbookViewId="0">
       <selection activeCell="BW1" sqref="BW1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:71">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>65</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>66</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>68</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>69</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>70</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>71</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>72</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>73</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>74</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>75</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>76</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>77</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>78</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>79</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>80</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>81</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>83</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>84</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>85</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>86</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>87</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>88</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>89</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>90</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>91</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
         <v>92</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>93</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" t="s">
         <v>94</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AY1" t="s">
         <v>95</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AZ1" t="s">
         <v>96</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BA1" t="s">
         <v>97</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
         <v>98</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>101</v>
       </c>
       <c r="BC1" t="s">
         <v>2</v>
       </c>
       <c r="BD1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI1" t="s">
         <v>102</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BJ1" t="s">
         <v>103</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BK1" t="s">
         <v>104</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BL1" t="s">
         <v>105</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BM1" t="s">
         <v>106</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BN1" t="s">
         <v>107</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BO1" t="s">
         <v>108</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BP1" t="s">
         <v>109</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>110</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BR1" t="s">
         <v>111</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BS1" t="s">
         <v>112</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4120,54 +3498,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.7109375" customWidth="1"/>
-    <col min="36" max="36" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.6640625" customWidth="1"/>
+    <col min="36" max="36" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -4181,13 +3559,13 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H1" t="s">
         <v>30</v>
@@ -4199,10 +3577,10 @@
         <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
@@ -4238,7 +3616,7 @@
         <v>16</v>
       </c>
       <c r="X1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Y1" t="s">
         <v>17</v>
@@ -4271,15 +3649,15 @@
         <v>26</v>
       </c>
       <c r="AI1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AJ1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B2" s="16">
         <v>43831</v>
@@ -4294,34 +3672,34 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P2">
         <v>150150650</v>
@@ -4330,37 +3708,37 @@
         <v>12548789562312</v>
       </c>
       <c r="R2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" t="s">
+        <v>119</v>
+      </c>
+      <c r="T2" t="s">
+        <v>120</v>
+      </c>
+      <c r="U2" t="s">
         <v>121</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="W2" t="s">
         <v>122</v>
-      </c>
-      <c r="T2" t="s">
-        <v>123</v>
-      </c>
-      <c r="U2" t="s">
-        <v>124</v>
-      </c>
-      <c r="V2" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="W2" t="s">
-        <v>125</v>
       </c>
       <c r="X2">
         <v>1</v>
       </c>
       <c r="Y2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Z2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA2" s="16">
         <v>43831</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AC2" s="16">
         <v>43842</v>
@@ -4387,9 +3765,9 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="16">
         <v>43831</v>
@@ -4404,34 +3782,34 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="K3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P3">
         <v>150150650</v>
@@ -4440,37 +3818,37 @@
         <v>12548789562312</v>
       </c>
       <c r="R3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="S3" t="s">
+        <v>119</v>
+      </c>
+      <c r="T3" t="s">
+        <v>120</v>
+      </c>
+      <c r="U3" t="s">
+        <v>241</v>
+      </c>
+      <c r="V3" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="W3" t="s">
         <v>122</v>
-      </c>
-      <c r="T3" t="s">
-        <v>123</v>
-      </c>
-      <c r="U3" t="s">
-        <v>250</v>
-      </c>
-      <c r="V3" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="W3" t="s">
-        <v>125</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
       <c r="Y3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Z3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA3" s="16">
         <v>43831</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AC3" s="16">
         <v>43842</v>
@@ -4497,9 +3875,9 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4" s="16">
         <v>43831</v>
@@ -4514,34 +3892,34 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J4" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="K4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="O4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P4">
         <v>150150650</v>
@@ -4550,37 +3928,37 @@
         <v>12548789562312</v>
       </c>
       <c r="R4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="S4" t="s">
+        <v>119</v>
+      </c>
+      <c r="T4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U4" t="s">
+        <v>242</v>
+      </c>
+      <c r="V4" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="W4" t="s">
         <v>122</v>
-      </c>
-      <c r="T4" t="s">
-        <v>123</v>
-      </c>
-      <c r="U4" t="s">
-        <v>251</v>
-      </c>
-      <c r="V4" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="W4" t="s">
-        <v>125</v>
       </c>
       <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Z4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA4" s="16">
         <v>43831</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AC4" s="16">
         <v>43842</v>
@@ -4607,9 +3985,9 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B5" s="16">
         <v>43831</v>
@@ -4624,34 +4002,34 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="O5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P5">
         <v>150150650</v>
@@ -4660,37 +4038,37 @@
         <v>12548789562312</v>
       </c>
       <c r="R5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="S5" t="s">
+        <v>119</v>
+      </c>
+      <c r="T5" t="s">
+        <v>120</v>
+      </c>
+      <c r="U5" t="s">
+        <v>243</v>
+      </c>
+      <c r="V5" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="W5" t="s">
         <v>122</v>
-      </c>
-      <c r="T5" t="s">
-        <v>123</v>
-      </c>
-      <c r="U5" t="s">
-        <v>252</v>
-      </c>
-      <c r="V5" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="W5" t="s">
-        <v>125</v>
       </c>
       <c r="X5">
         <v>1</v>
       </c>
       <c r="Y5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Z5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA5" s="16">
         <v>43831</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AC5" s="16">
         <v>43842</v>
@@ -4717,9 +4095,9 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B6" s="16">
         <v>43831</v>
@@ -4734,34 +4112,34 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="K6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P6">
         <v>150150650</v>
@@ -4770,37 +4148,37 @@
         <v>12548789562312</v>
       </c>
       <c r="R6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="S6" t="s">
+        <v>119</v>
+      </c>
+      <c r="T6" t="s">
+        <v>120</v>
+      </c>
+      <c r="U6" t="s">
+        <v>244</v>
+      </c>
+      <c r="V6" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="W6" t="s">
         <v>122</v>
-      </c>
-      <c r="T6" t="s">
-        <v>123</v>
-      </c>
-      <c r="U6" t="s">
-        <v>253</v>
-      </c>
-      <c r="V6" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="W6" t="s">
-        <v>125</v>
       </c>
       <c r="X6">
         <v>1</v>
       </c>
       <c r="Y6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA6" s="16">
         <v>43831</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AC6" s="16">
         <v>43842</v>
@@ -4833,32 +4211,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4866,13 +4244,13 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F1" t="s">
         <v>41</v>
@@ -4881,19 +4259,19 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="J1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M1" t="s">
         <v>42</v>
@@ -4902,24 +4280,24 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>43831</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G2" s="10">
         <v>12548789562312</v>
@@ -4942,30 +4320,30 @@
         <v>45</v>
       </c>
       <c r="M2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>43832</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G3" s="10">
         <v>12548789562312</v>
@@ -4988,30 +4366,30 @@
         <v>120</v>
       </c>
       <c r="M3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>43833</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G4" s="10">
         <v>12548789562312</v>
@@ -5034,30 +4412,30 @@
         <v>260</v>
       </c>
       <c r="M4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>43831</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D5" s="12">
         <v>2</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G5" s="17">
         <v>2536573468735</v>
@@ -5080,30 +4458,30 @@
         <v>120</v>
       </c>
       <c r="M5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>43832</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D6" s="12">
         <v>2</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G6" s="17">
         <v>34625437</v>
@@ -5126,30 +4504,30 @@
         <v>80</v>
       </c>
       <c r="M6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>43831</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D7" s="12">
         <v>3</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G7" s="17">
         <v>24571464</v>
@@ -5172,30 +4550,30 @@
         <v>100</v>
       </c>
       <c r="M7" t="s">
+        <v>168</v>
+      </c>
+      <c r="N7" t="s">
         <v>173</v>
       </c>
-      <c r="N7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>43832</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D8" s="12">
         <v>3</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G8" s="17">
         <v>461357487468214</v>
@@ -5218,30 +4596,30 @@
         <v>260</v>
       </c>
       <c r="M8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="N8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>43834</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D9" s="12">
         <v>3</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G9" s="17">
         <v>4613654135</v>
@@ -5264,30 +4642,30 @@
         <v>45</v>
       </c>
       <c r="M9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="N9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>43835</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D10" s="12">
         <v>3</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G10" s="17">
         <v>45353453</v>
@@ -5310,30 +4688,30 @@
         <v>100</v>
       </c>
       <c r="M10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>43832</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D11" s="12">
         <v>4</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G11" s="17">
         <v>6541351</v>
@@ -5356,30 +4734,30 @@
         <v>260</v>
       </c>
       <c r="M11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>43833</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D12" s="12">
         <v>4</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G12" s="17">
         <v>16516</v>
@@ -5402,30 +4780,30 @@
         <v>80</v>
       </c>
       <c r="M12" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>43831</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D13" s="12">
         <v>5</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G13" s="17">
         <v>65846516</v>
@@ -5448,30 +4826,30 @@
         <v>45</v>
       </c>
       <c r="M13" t="s">
+        <v>168</v>
+      </c>
+      <c r="N13" t="s">
         <v>173</v>
       </c>
-      <c r="N13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>43832</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D14" s="12">
         <v>5</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G14" s="17">
         <v>65168416</v>
@@ -5494,30 +4872,30 @@
         <v>120</v>
       </c>
       <c r="M14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>43837</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D15" s="12">
         <v>5</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G15" s="17">
         <v>56160684</v>
@@ -5540,30 +4918,30 @@
         <v>100</v>
       </c>
       <c r="M15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="N15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>43836</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D16" s="12">
         <v>5</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G16" s="17">
         <v>1638485684</v>
@@ -5586,10 +4964,10 @@
         <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N16" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5599,30 +4977,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -5633,7 +5011,7 @@
         <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
         <v>36</v>
@@ -5666,9 +5044,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" s="16">
         <v>43831</v>
@@ -5677,22 +5055,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
         <v>119</v>
       </c>
-      <c r="E2" t="s">
-        <v>122</v>
-      </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H2" s="10">
         <v>12548789562312</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J2">
         <v>4687569276</v>
@@ -5716,21 +5094,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -5738,48 +5116,48 @@
         <v>3</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="22">
         <v>43862</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F2" s="19">
         <v>200</v>
@@ -5800,21 +5178,21 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="22">
         <v>43863</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F3" s="19">
         <v>300</v>
@@ -5835,21 +5213,21 @@
         <v>890</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" s="22">
         <v>43864</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F4" s="19">
         <v>250</v>
@@ -5870,21 +5248,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="22">
         <v>43865</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F5" s="19">
         <v>400</v>
@@ -5905,21 +5283,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B6" s="22">
         <v>43862</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F6" s="19">
         <v>250</v>
@@ -5940,21 +5318,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B7" s="22">
         <v>43863</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F7" s="19">
         <v>400</v>
@@ -5975,21 +5353,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B8" s="22">
         <v>43864</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F8" s="19">
         <v>200</v>
@@ -6010,21 +5388,21 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B9" s="22">
         <v>43865</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F9" s="19">
         <v>300</v>
@@ -6045,21 +5423,21 @@
         <v>890</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B10" s="22">
         <v>43862</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F10" s="19">
         <v>250</v>
@@ -6080,21 +5458,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B11" s="22">
         <v>43863</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F11" s="19">
         <v>400</v>
@@ -6115,21 +5493,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B12" s="22">
         <v>43864</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F12" s="19">
         <v>200</v>
@@ -6150,21 +5528,21 @@
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B13" s="22">
         <v>43865</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F13" s="19">
         <v>300</v>
@@ -6185,21 +5563,21 @@
         <v>890</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B14" s="22">
         <v>43862</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F14" s="19">
         <v>250</v>
@@ -6220,21 +5598,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B15" s="22">
         <v>43863</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F15" s="19">
         <v>400</v>
@@ -6255,21 +5633,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B16" s="22">
         <v>43864</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F16" s="19">
         <v>200</v>
@@ -6290,21 +5668,21 @@
         <v>450</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B17" s="22">
         <v>43865</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F17" s="19">
         <v>300</v>
@@ -6325,21 +5703,21 @@
         <v>890</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B18" s="22">
         <v>43862</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F18" s="19">
         <v>250</v>
@@ -6360,21 +5738,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B19" s="22">
         <v>43863</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F19" s="19">
         <v>400</v>
@@ -6395,21 +5773,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B20" s="22">
         <v>43864</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F20" s="19">
         <v>200</v>
@@ -6430,21 +5808,21 @@
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B21" s="22">
         <v>43865</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F21" s="19">
         <v>300</v>
@@ -6471,16 +5849,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
@@ -6488,15 +5866,15 @@
         <v>3</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="24">
         <v>43862</v>
@@ -6508,9 +5886,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="24">
         <v>43863</v>
@@ -6522,9 +5900,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" s="24">
         <v>43864</v>
@@ -6536,9 +5914,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="24">
         <v>43865</v>
@@ -6550,9 +5928,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="24">
         <v>43866</v>
@@ -6564,9 +5942,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B7" s="25">
         <v>43862</v>
@@ -6578,9 +5956,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B8" s="25">
         <v>43863</v>
@@ -6592,9 +5970,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B9" s="25">
         <v>43864</v>
@@ -6606,9 +5984,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B10" s="25">
         <v>43865</v>
@@ -6620,9 +5998,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B11" s="25">
         <v>43866</v>
@@ -6634,9 +6012,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B12" s="25">
         <v>43862</v>
@@ -6648,9 +6026,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B13" s="25">
         <v>43863</v>
@@ -6662,9 +6040,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B14" s="25">
         <v>43864</v>
@@ -6676,9 +6054,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B15" s="25">
         <v>43865</v>
@@ -6690,9 +6068,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B16" s="25">
         <v>43866</v>
@@ -6704,9 +6082,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B17" s="25">
         <v>43867</v>
@@ -6718,9 +6096,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B18" s="26">
         <v>43862</v>
@@ -6732,9 +6110,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B19" s="26">
         <v>43863</v>
@@ -6746,9 +6124,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B20" s="26">
         <v>43864</v>
@@ -6760,9 +6138,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B21" s="26">
         <v>43865</v>
@@ -6774,9 +6152,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B22" s="26">
         <v>43866</v>
@@ -6788,9 +6166,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B23" s="26">
         <v>43862</v>
@@ -6802,9 +6180,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B24" s="26">
         <v>43863</v>
@@ -6816,9 +6194,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B25" s="26">
         <v>43864</v>
@@ -6830,9 +6208,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B26" s="26">
         <v>43865</v>
@@ -6844,9 +6222,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B27" s="26">
         <v>43866</v>

--- a/server/client_data.xlsx
+++ b/server/client_data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanooj/Downloads/dynamic_UI-prototype/server/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="24320" windowHeight="11480" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="20730" windowHeight="11475" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Securities" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
     <sheet name="TopTradingStocks" sheetId="7" r:id="rId7"/>
     <sheet name="Pledged" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -843,8 +838,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -927,7 +922,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -956,7 +951,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1019,7 +1013,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1054,7 +1048,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1262,38 +1256,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+      <selection activeCell="Z3" sqref="Z3:Z6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="13.33203125" style="7" customWidth="1"/>
-    <col min="15" max="16" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="13.28515625" style="7" customWidth="1"/>
+    <col min="15" max="16" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.83203125" style="7"/>
+    <col min="27" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="6" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
@@ -1315,28 +1309,28 @@
       <c r="G1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="27" t="s">
         <v>211</v>
       </c>
       <c r="P1" s="8" t="s">
@@ -1375,11 +1369,11 @@
       <c r="AA1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AB1" s="29" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="6" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
@@ -1401,7 +1395,7 @@
       <c r="G2">
         <v>9821074160</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>222</v>
       </c>
       <c r="I2" t="s">
@@ -1456,7 +1450,7 @@
         <v>43831</v>
       </c>
       <c r="Z2" s="15">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="AA2" s="5" t="s">
         <v>144</v>
@@ -1465,7 +1459,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28">
       <c r="A3" s="7" t="s">
         <v>159</v>
       </c>
@@ -1487,7 +1481,7 @@
       <c r="G3">
         <v>9921055426</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="28" t="s">
         <v>223</v>
       </c>
       <c r="I3" t="s">
@@ -1542,7 +1536,7 @@
         <v>43831</v>
       </c>
       <c r="Z3" s="15">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="AA3" s="5" t="s">
         <v>144</v>
@@ -1551,7 +1545,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28">
       <c r="A4" s="7" t="s">
         <v>181</v>
       </c>
@@ -1573,7 +1567,7 @@
       <c r="G4">
         <v>8477522264</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="28" t="s">
         <v>224</v>
       </c>
       <c r="I4" t="s">
@@ -1628,7 +1622,7 @@
         <v>43831</v>
       </c>
       <c r="Z4" s="15">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="AA4" s="5" t="s">
         <v>144</v>
@@ -1637,7 +1631,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28">
       <c r="A5" s="14" t="s">
         <v>182</v>
       </c>
@@ -1659,7 +1653,7 @@
       <c r="G5">
         <v>9820565195</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="28" t="s">
         <v>225</v>
       </c>
       <c r="I5" t="s">
@@ -1714,7 +1708,7 @@
         <v>43831</v>
       </c>
       <c r="Z5" s="15">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="AA5" s="5" t="s">
         <v>144</v>
@@ -1723,7 +1717,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28">
       <c r="A6" s="14" t="s">
         <v>158</v>
       </c>
@@ -1745,7 +1739,7 @@
       <c r="G6">
         <v>9973268525</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="28" t="s">
         <v>226</v>
       </c>
       <c r="I6" t="s">
@@ -1800,7 +1794,7 @@
         <v>43831</v>
       </c>
       <c r="Z6" s="15">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="AA6" s="5" t="s">
         <v>144</v>
@@ -1823,27 +1817,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="7"/>
+    <col min="4" max="4" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
@@ -1869,7 +1863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1883,10 +1877,10 @@
         <v>258</v>
       </c>
       <c r="E2" s="13">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="F2" s="7">
-        <v>6600</v>
+        <v>660</v>
       </c>
       <c r="G2" s="17">
         <v>50</v>
@@ -1895,7 +1889,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1909,19 +1903,19 @@
         <v>258</v>
       </c>
       <c r="E3" s="13">
-        <v>43863</v>
+        <v>43892</v>
       </c>
       <c r="F3" s="7">
-        <v>6520</v>
-      </c>
-      <c r="G3" s="27">
+        <v>652</v>
+      </c>
+      <c r="G3" s="26">
         <v>90</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1935,19 +1929,19 @@
         <v>258</v>
       </c>
       <c r="E4" s="13">
-        <v>43864</v>
+        <v>43893</v>
       </c>
       <c r="F4" s="7">
-        <v>7500</v>
-      </c>
-      <c r="G4" s="27">
+        <v>750</v>
+      </c>
+      <c r="G4" s="26">
         <v>72</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -1961,19 +1955,19 @@
         <v>258</v>
       </c>
       <c r="E5" s="13">
-        <v>43865</v>
+        <v>43894</v>
       </c>
       <c r="F5" s="14">
-        <v>2300</v>
-      </c>
-      <c r="G5" s="27">
+        <v>230</v>
+      </c>
+      <c r="G5" s="26">
         <v>63</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -1987,19 +1981,19 @@
         <v>258</v>
       </c>
       <c r="E6" s="13">
-        <v>43866</v>
+        <v>43895</v>
       </c>
       <c r="F6" s="14">
-        <v>1750</v>
-      </c>
-      <c r="G6" s="27">
+        <v>175</v>
+      </c>
+      <c r="G6" s="26">
         <v>105</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -2013,19 +2007,19 @@
         <v>258</v>
       </c>
       <c r="E7" s="13">
-        <v>43867</v>
+        <v>43896</v>
       </c>
       <c r="F7" s="14">
-        <v>8000</v>
-      </c>
-      <c r="G7" s="27">
+        <v>800</v>
+      </c>
+      <c r="G7" s="26">
         <v>60</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -2039,19 +2033,19 @@
         <v>258</v>
       </c>
       <c r="E8" s="13">
-        <v>43868</v>
+        <v>43897</v>
       </c>
       <c r="F8" s="14">
-        <v>4500</v>
-      </c>
-      <c r="G8" s="27">
+        <v>450</v>
+      </c>
+      <c r="G8" s="26">
         <v>30</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -2065,19 +2059,19 @@
         <v>258</v>
       </c>
       <c r="E9" s="13">
-        <v>43869</v>
+        <v>43898</v>
       </c>
       <c r="F9" s="14">
-        <v>1800</v>
-      </c>
-      <c r="G9" s="27">
+        <v>180</v>
+      </c>
+      <c r="G9" s="26">
         <v>52</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="14">
         <v>2</v>
       </c>
@@ -2091,19 +2085,19 @@
         <v>259</v>
       </c>
       <c r="E10" s="25">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="F10" s="14">
-        <v>14500</v>
-      </c>
-      <c r="G10" s="27">
+        <v>1450</v>
+      </c>
+      <c r="G10" s="26">
         <v>110</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="14">
         <v>2</v>
       </c>
@@ -2117,19 +2111,19 @@
         <v>259</v>
       </c>
       <c r="E11" s="25">
-        <v>43863</v>
+        <v>43892</v>
       </c>
       <c r="F11" s="14">
-        <v>12000</v>
-      </c>
-      <c r="G11" s="27">
+        <v>1200</v>
+      </c>
+      <c r="G11" s="26">
         <v>111</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="14">
         <v>2</v>
       </c>
@@ -2143,19 +2137,19 @@
         <v>259</v>
       </c>
       <c r="E12" s="25">
-        <v>43864</v>
+        <v>43893</v>
       </c>
       <c r="F12" s="14">
-        <v>25000</v>
-      </c>
-      <c r="G12" s="27">
+        <v>250</v>
+      </c>
+      <c r="G12" s="26">
         <v>20</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="14">
         <v>2</v>
       </c>
@@ -2169,19 +2163,19 @@
         <v>259</v>
       </c>
       <c r="E13" s="25">
-        <v>43865</v>
+        <v>43894</v>
       </c>
       <c r="F13" s="14">
-        <v>75000</v>
-      </c>
-      <c r="G13" s="27">
+        <v>750</v>
+      </c>
+      <c r="G13" s="26">
         <v>60</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="14">
         <v>2</v>
       </c>
@@ -2195,19 +2189,19 @@
         <v>259</v>
       </c>
       <c r="E14" s="25">
-        <v>43866</v>
+        <v>43895</v>
       </c>
       <c r="F14" s="14">
-        <v>65000</v>
-      </c>
-      <c r="G14" s="27">
+        <v>650</v>
+      </c>
+      <c r="G14" s="26">
         <v>40</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="14">
         <v>2</v>
       </c>
@@ -2221,19 +2215,19 @@
         <v>259</v>
       </c>
       <c r="E15" s="25">
-        <v>43867</v>
+        <v>43896</v>
       </c>
       <c r="F15" s="14">
-        <v>12000</v>
-      </c>
-      <c r="G15" s="27">
+        <v>120</v>
+      </c>
+      <c r="G15" s="26">
         <v>49</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="14">
         <v>2</v>
       </c>
@@ -2247,19 +2241,19 @@
         <v>259</v>
       </c>
       <c r="E16" s="25">
-        <v>43868</v>
+        <v>43897</v>
       </c>
       <c r="F16" s="14">
-        <v>165000</v>
-      </c>
-      <c r="G16" s="27">
+        <v>1650</v>
+      </c>
+      <c r="G16" s="26">
         <v>115</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="14">
         <v>2</v>
       </c>
@@ -2273,19 +2267,19 @@
         <v>259</v>
       </c>
       <c r="E17" s="25">
-        <v>43869</v>
+        <v>43898</v>
       </c>
       <c r="F17" s="14">
-        <v>85000</v>
-      </c>
-      <c r="G17" s="27">
+        <v>850</v>
+      </c>
+      <c r="G17" s="26">
         <v>20</v>
       </c>
       <c r="H17" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="14">
         <v>2</v>
       </c>
@@ -2299,19 +2293,19 @@
         <v>259</v>
       </c>
       <c r="E18" s="25">
-        <v>43870</v>
+        <v>43899</v>
       </c>
       <c r="F18" s="14">
-        <v>67520</v>
-      </c>
-      <c r="G18" s="27">
+        <v>675</v>
+      </c>
+      <c r="G18" s="26">
         <v>69</v>
       </c>
       <c r="H18" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="14">
         <v>2</v>
       </c>
@@ -2325,19 +2319,19 @@
         <v>259</v>
       </c>
       <c r="E19" s="25">
-        <v>43871</v>
+        <v>43900</v>
       </c>
       <c r="F19" s="14">
-        <v>18900</v>
-      </c>
-      <c r="G19" s="27">
+        <v>189</v>
+      </c>
+      <c r="G19" s="26">
         <v>32</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="14">
         <v>3</v>
       </c>
@@ -2351,19 +2345,19 @@
         <v>260</v>
       </c>
       <c r="E20" s="25">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="F20" s="14">
         <v>400</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="26">
         <v>28</v>
       </c>
       <c r="H20" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="14">
         <v>3</v>
       </c>
@@ -2377,19 +2371,19 @@
         <v>260</v>
       </c>
       <c r="E21" s="25">
-        <v>43863</v>
+        <v>43892</v>
       </c>
       <c r="F21" s="14">
-        <v>5000</v>
-      </c>
-      <c r="G21" s="27">
+        <v>500</v>
+      </c>
+      <c r="G21" s="26">
         <v>49</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="14">
         <v>3</v>
       </c>
@@ -2403,19 +2397,19 @@
         <v>260</v>
       </c>
       <c r="E22" s="25">
-        <v>43864</v>
+        <v>43893</v>
       </c>
       <c r="F22" s="14">
-        <v>8900</v>
-      </c>
-      <c r="G22" s="27">
+        <v>890</v>
+      </c>
+      <c r="G22" s="26">
         <v>36</v>
       </c>
       <c r="H22" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="14">
         <v>3</v>
       </c>
@@ -2429,19 +2423,19 @@
         <v>260</v>
       </c>
       <c r="E23" s="25">
-        <v>43865</v>
+        <v>43894</v>
       </c>
       <c r="F23" s="14">
-        <v>1400</v>
-      </c>
-      <c r="G23" s="27">
+        <v>140</v>
+      </c>
+      <c r="G23" s="26">
         <v>20</v>
       </c>
       <c r="H23" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="14">
         <v>3</v>
       </c>
@@ -2455,19 +2449,19 @@
         <v>260</v>
       </c>
       <c r="E24" s="25">
-        <v>43866</v>
+        <v>43895</v>
       </c>
       <c r="F24" s="14">
-        <v>15000</v>
-      </c>
-      <c r="G24" s="27">
+        <v>150</v>
+      </c>
+      <c r="G24" s="26">
         <v>120</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="14">
         <v>3</v>
       </c>
@@ -2481,19 +2475,19 @@
         <v>260</v>
       </c>
       <c r="E25" s="25">
-        <v>43867</v>
+        <v>43896</v>
       </c>
       <c r="F25" s="14">
         <v>1650</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="26">
         <v>36</v>
       </c>
       <c r="H25" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="14">
         <v>3</v>
       </c>
@@ -2507,19 +2501,19 @@
         <v>260</v>
       </c>
       <c r="E26" s="25">
-        <v>43868</v>
+        <v>43897</v>
       </c>
       <c r="F26" s="14">
-        <v>43000</v>
-      </c>
-      <c r="G26" s="27">
+        <v>430</v>
+      </c>
+      <c r="G26" s="26">
         <v>94</v>
       </c>
       <c r="H26" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="14">
         <v>3</v>
       </c>
@@ -2533,19 +2527,19 @@
         <v>260</v>
       </c>
       <c r="E27" s="25">
-        <v>43869</v>
+        <v>43898</v>
       </c>
       <c r="F27" s="14">
-        <v>8900</v>
-      </c>
-      <c r="G27" s="27">
+        <v>890</v>
+      </c>
+      <c r="G27" s="26">
         <v>87</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="14">
         <v>3</v>
       </c>
@@ -2559,19 +2553,19 @@
         <v>260</v>
       </c>
       <c r="E28" s="25">
-        <v>43870</v>
+        <v>43899</v>
       </c>
       <c r="F28" s="14">
-        <v>65000</v>
-      </c>
-      <c r="G28" s="27">
+        <v>650</v>
+      </c>
+      <c r="G28" s="26">
         <v>52</v>
       </c>
       <c r="H28" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="14">
         <v>3</v>
       </c>
@@ -2585,19 +2579,19 @@
         <v>260</v>
       </c>
       <c r="E29" s="25">
-        <v>43871</v>
+        <v>43900</v>
       </c>
       <c r="F29" s="14">
-        <v>14789</v>
-      </c>
-      <c r="G29" s="27">
+        <v>1479</v>
+      </c>
+      <c r="G29" s="26">
         <v>62</v>
       </c>
       <c r="H29" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="14">
         <v>4</v>
       </c>
@@ -2611,19 +2605,19 @@
         <v>261</v>
       </c>
       <c r="E30" s="25">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="F30" s="14">
-        <v>150000</v>
-      </c>
-      <c r="G30" s="27">
+        <v>1500</v>
+      </c>
+      <c r="G30" s="26">
         <v>40</v>
       </c>
       <c r="H30" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="14">
         <v>4</v>
       </c>
@@ -2637,19 +2631,19 @@
         <v>261</v>
       </c>
       <c r="E31" s="25">
-        <v>43863</v>
+        <v>43892</v>
       </c>
       <c r="F31" s="14">
-        <v>175000</v>
-      </c>
-      <c r="G31" s="27">
+        <v>1750</v>
+      </c>
+      <c r="G31" s="26">
         <v>103</v>
       </c>
       <c r="H31" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="14">
         <v>4</v>
       </c>
@@ -2663,19 +2657,19 @@
         <v>261</v>
       </c>
       <c r="E32" s="25">
-        <v>43864</v>
+        <v>43893</v>
       </c>
       <c r="F32" s="14">
-        <v>250000</v>
-      </c>
-      <c r="G32" s="27">
+        <v>250</v>
+      </c>
+      <c r="G32" s="26">
         <v>60</v>
       </c>
       <c r="H32" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="14">
         <v>4</v>
       </c>
@@ -2689,19 +2683,19 @@
         <v>261</v>
       </c>
       <c r="E33" s="25">
-        <v>43865</v>
+        <v>43894</v>
       </c>
       <c r="F33" s="14">
-        <v>125000</v>
-      </c>
-      <c r="G33" s="27">
+        <v>1250</v>
+      </c>
+      <c r="G33" s="26">
         <v>50</v>
       </c>
       <c r="H33" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="14">
         <v>4</v>
       </c>
@@ -2715,19 +2709,19 @@
         <v>261</v>
       </c>
       <c r="E34" s="25">
-        <v>43866</v>
+        <v>43895</v>
       </c>
       <c r="F34" s="14">
-        <v>100000</v>
-      </c>
-      <c r="G34" s="27">
+        <v>100</v>
+      </c>
+      <c r="G34" s="26">
         <v>57</v>
       </c>
       <c r="H34" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="14">
         <v>4</v>
       </c>
@@ -2741,19 +2735,19 @@
         <v>261</v>
       </c>
       <c r="E35" s="25">
-        <v>43867</v>
+        <v>43896</v>
       </c>
       <c r="F35" s="14">
-        <v>165000</v>
-      </c>
-      <c r="G35" s="27">
+        <v>165</v>
+      </c>
+      <c r="G35" s="26">
         <v>80</v>
       </c>
       <c r="H35" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="14">
         <v>4</v>
       </c>
@@ -2767,19 +2761,19 @@
         <v>261</v>
       </c>
       <c r="E36" s="25">
-        <v>43868</v>
+        <v>43897</v>
       </c>
       <c r="F36" s="14">
-        <v>4500</v>
-      </c>
-      <c r="G36" s="27">
+        <v>450</v>
+      </c>
+      <c r="G36" s="26">
         <v>39</v>
       </c>
       <c r="H36" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="14">
         <v>4</v>
       </c>
@@ -2793,19 +2787,19 @@
         <v>261</v>
       </c>
       <c r="E37" s="25">
-        <v>43869</v>
+        <v>43898</v>
       </c>
       <c r="F37" s="14">
-        <v>69450</v>
-      </c>
-      <c r="G37" s="27">
+        <v>694</v>
+      </c>
+      <c r="G37" s="26">
         <v>40</v>
       </c>
       <c r="H37" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="14">
         <v>4</v>
       </c>
@@ -2819,19 +2813,19 @@
         <v>261</v>
       </c>
       <c r="E38" s="25">
-        <v>43870</v>
+        <v>43899</v>
       </c>
       <c r="F38" s="14">
         <v>456</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38" s="26">
         <v>5</v>
       </c>
       <c r="H38" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="14">
         <v>4</v>
       </c>
@@ -2845,19 +2839,19 @@
         <v>261</v>
       </c>
       <c r="E39" s="25">
-        <v>43871</v>
+        <v>43900</v>
       </c>
       <c r="F39" s="14">
         <v>25</v>
       </c>
-      <c r="G39" s="27">
+      <c r="G39" s="26">
         <v>105</v>
       </c>
       <c r="H39" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="14">
         <v>4</v>
       </c>
@@ -2871,19 +2865,19 @@
         <v>261</v>
       </c>
       <c r="E40" s="25">
-        <v>43872</v>
+        <v>43901</v>
       </c>
       <c r="F40" s="14">
-        <v>1489654</v>
-      </c>
-      <c r="G40" s="27">
+        <v>148</v>
+      </c>
+      <c r="G40" s="26">
         <v>60</v>
       </c>
       <c r="H40" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="14">
         <v>4</v>
       </c>
@@ -2897,19 +2891,19 @@
         <v>261</v>
       </c>
       <c r="E41" s="25">
-        <v>43873</v>
+        <v>43902</v>
       </c>
       <c r="F41" s="14">
         <v>155</v>
       </c>
-      <c r="G41" s="27">
+      <c r="G41" s="26">
         <v>70</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="14">
         <v>4</v>
       </c>
@@ -2923,19 +2917,19 @@
         <v>261</v>
       </c>
       <c r="E42" s="25">
-        <v>43874</v>
+        <v>43903</v>
       </c>
       <c r="F42" s="14">
-        <v>214544</v>
-      </c>
-      <c r="G42" s="27">
+        <v>214</v>
+      </c>
+      <c r="G42" s="26">
         <v>45</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="14">
         <v>5</v>
       </c>
@@ -2949,19 +2943,19 @@
         <v>262</v>
       </c>
       <c r="E43" s="25">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="F43" s="14">
-        <v>75000</v>
-      </c>
-      <c r="G43" s="27">
+        <v>750</v>
+      </c>
+      <c r="G43" s="26">
         <v>50</v>
       </c>
       <c r="H43" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="14">
         <v>5</v>
       </c>
@@ -2975,19 +2969,19 @@
         <v>262</v>
       </c>
       <c r="E44" s="25">
-        <v>43863</v>
+        <v>43892</v>
       </c>
       <c r="F44" s="14">
-        <v>65000</v>
-      </c>
-      <c r="G44" s="27">
+        <v>650</v>
+      </c>
+      <c r="G44" s="26">
         <v>110</v>
       </c>
       <c r="H44" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="14">
         <v>5</v>
       </c>
@@ -3001,19 +2995,19 @@
         <v>262</v>
       </c>
       <c r="E45" s="25">
-        <v>43864</v>
+        <v>43893</v>
       </c>
       <c r="F45" s="14">
-        <v>12000</v>
-      </c>
-      <c r="G45" s="27">
+        <v>120</v>
+      </c>
+      <c r="G45" s="26">
         <v>110</v>
       </c>
       <c r="H45" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="14">
         <v>5</v>
       </c>
@@ -3027,19 +3021,19 @@
         <v>262</v>
       </c>
       <c r="E46" s="25">
-        <v>43865</v>
+        <v>43894</v>
       </c>
       <c r="F46" s="14">
-        <v>165000</v>
-      </c>
-      <c r="G46" s="27">
+        <v>1650</v>
+      </c>
+      <c r="G46" s="26">
         <v>60</v>
       </c>
       <c r="H46" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="14">
         <v>5</v>
       </c>
@@ -3053,19 +3047,19 @@
         <v>262</v>
       </c>
       <c r="E47" s="25">
-        <v>43866</v>
+        <v>43895</v>
       </c>
       <c r="F47" s="14">
-        <v>85000</v>
-      </c>
-      <c r="G47" s="27">
+        <v>850</v>
+      </c>
+      <c r="G47" s="26">
         <v>50</v>
       </c>
       <c r="H47" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="14">
         <v>5</v>
       </c>
@@ -3079,19 +3073,19 @@
         <v>262</v>
       </c>
       <c r="E48" s="25">
-        <v>43867</v>
+        <v>43896</v>
       </c>
       <c r="F48" s="14">
-        <v>67520</v>
-      </c>
-      <c r="G48" s="27">
+        <v>675</v>
+      </c>
+      <c r="G48" s="26">
         <v>40</v>
       </c>
       <c r="H48" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="14">
         <v>5</v>
       </c>
@@ -3105,19 +3099,19 @@
         <v>262</v>
       </c>
       <c r="E49" s="25">
-        <v>43868</v>
+        <v>43897</v>
       </c>
       <c r="F49" s="14">
-        <v>18900</v>
-      </c>
-      <c r="G49" s="27">
+        <v>1890</v>
+      </c>
+      <c r="G49" s="26">
         <v>70</v>
       </c>
       <c r="H49" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="14">
         <v>5</v>
       </c>
@@ -3131,19 +3125,19 @@
         <v>262</v>
       </c>
       <c r="E50" s="25">
-        <v>43869</v>
+        <v>43898</v>
       </c>
       <c r="F50" s="14">
         <v>400</v>
       </c>
-      <c r="G50" s="27">
+      <c r="G50" s="26">
         <v>80</v>
       </c>
       <c r="H50" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="14">
         <v>5</v>
       </c>
@@ -3157,19 +3151,19 @@
         <v>262</v>
       </c>
       <c r="E51" s="25">
-        <v>43870</v>
+        <v>43899</v>
       </c>
       <c r="F51" s="14">
-        <v>5000</v>
-      </c>
-      <c r="G51" s="27">
+        <v>500</v>
+      </c>
+      <c r="G51" s="26">
         <v>90</v>
       </c>
       <c r="H51" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="14">
         <v>5</v>
       </c>
@@ -3183,19 +3177,19 @@
         <v>262</v>
       </c>
       <c r="E52" s="25">
-        <v>43871</v>
+        <v>43900</v>
       </c>
       <c r="F52" s="14">
-        <v>8900</v>
-      </c>
-      <c r="G52" s="27">
+        <v>890</v>
+      </c>
+      <c r="G52" s="26">
         <v>50</v>
       </c>
       <c r="H52" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="14">
         <v>5</v>
       </c>
@@ -3209,19 +3203,19 @@
         <v>262</v>
       </c>
       <c r="E53" s="25">
-        <v>43872</v>
+        <v>43901</v>
       </c>
       <c r="F53" s="14">
-        <v>1400</v>
-      </c>
-      <c r="G53" s="27">
+        <v>140</v>
+      </c>
+      <c r="G53" s="26">
         <v>40</v>
       </c>
       <c r="H53" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="14">
         <v>5</v>
       </c>
@@ -3235,19 +3229,19 @@
         <v>262</v>
       </c>
       <c r="E54" s="25">
-        <v>43873</v>
+        <v>43902</v>
       </c>
       <c r="F54" s="14">
-        <v>15000</v>
-      </c>
-      <c r="G54" s="27">
+        <v>150</v>
+      </c>
+      <c r="G54" s="26">
         <v>70</v>
       </c>
       <c r="H54" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="14">
         <v>5</v>
       </c>
@@ -3261,28 +3255,28 @@
         <v>262</v>
       </c>
       <c r="E55" s="25">
-        <v>43874</v>
+        <v>43903</v>
       </c>
       <c r="F55" s="14">
         <v>1650</v>
       </c>
-      <c r="G55" s="27">
+      <c r="G55" s="26">
         <v>50</v>
       </c>
       <c r="H55" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="F56" s="14"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="F57" s="14"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="F58" s="14"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="F59" s="14"/>
     </row>
   </sheetData>
@@ -3292,16 +3286,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BS1"/>
   <sheetViews>
     <sheetView topLeftCell="BN1" workbookViewId="0">
-      <selection activeCell="BW1" sqref="BW1"/>
+      <selection activeCell="BQ26" sqref="BQ26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:71">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -3498,54 +3492,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.6640625" customWidth="1"/>
-    <col min="36" max="36" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.7109375" customWidth="1"/>
+    <col min="36" max="36" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3655,7 +3649,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -3719,7 +3713,7 @@
       <c r="U2" t="s">
         <v>121</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="V2" s="28" t="s">
         <v>245</v>
       </c>
       <c r="W2" t="s">
@@ -3765,7 +3759,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -3829,7 +3823,7 @@
       <c r="U3" t="s">
         <v>241</v>
       </c>
-      <c r="V3" s="29" t="s">
+      <c r="V3" s="28" t="s">
         <v>246</v>
       </c>
       <c r="W3" t="s">
@@ -3875,7 +3869,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -3939,7 +3933,7 @@
       <c r="U4" t="s">
         <v>242</v>
       </c>
-      <c r="V4" s="29" t="s">
+      <c r="V4" s="28" t="s">
         <v>247</v>
       </c>
       <c r="W4" t="s">
@@ -3985,7 +3979,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -4049,7 +4043,7 @@
       <c r="U5" t="s">
         <v>243</v>
       </c>
-      <c r="V5" s="29" t="s">
+      <c r="V5" s="28" t="s">
         <v>248</v>
       </c>
       <c r="W5" t="s">
@@ -4095,7 +4089,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -4159,7 +4153,7 @@
       <c r="U6" t="s">
         <v>244</v>
       </c>
-      <c r="V6" s="29" t="s">
+      <c r="V6" s="28" t="s">
         <v>177</v>
       </c>
       <c r="W6" t="s">
@@ -4211,32 +4205,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5" customWidth="1"/>
-    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4280,7 +4274,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="16">
         <v>43831</v>
       </c>
@@ -4326,7 +4320,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="16">
         <v>43832</v>
       </c>
@@ -4372,7 +4366,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="16">
         <v>43833</v>
       </c>
@@ -4418,7 +4412,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="16">
         <v>43831</v>
       </c>
@@ -4464,7 +4458,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="16">
         <v>43832</v>
       </c>
@@ -4510,7 +4504,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="16">
         <v>43831</v>
       </c>
@@ -4556,7 +4550,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="16">
         <v>43832</v>
       </c>
@@ -4602,7 +4596,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="16">
         <v>43834</v>
       </c>
@@ -4648,7 +4642,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="16">
         <v>43835</v>
       </c>
@@ -4694,7 +4688,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="16">
         <v>43832</v>
       </c>
@@ -4740,7 +4734,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="16">
         <v>43833</v>
       </c>
@@ -4786,7 +4780,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="16">
         <v>43831</v>
       </c>
@@ -4832,7 +4826,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="16">
         <v>43832</v>
       </c>
@@ -4878,7 +4872,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="16">
         <v>43837</v>
       </c>
@@ -4924,7 +4918,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="16">
         <v>43836</v>
       </c>
@@ -4977,30 +4971,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -5044,7 +5038,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -5094,21 +5088,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="B18" sqref="B18:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -5143,12 +5137,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="22">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>203</v>
@@ -5178,12 +5172,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="22">
-        <v>43863</v>
+        <v>43892</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>203</v>
@@ -5213,12 +5207,12 @@
         <v>890</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="22">
-        <v>43864</v>
+        <v>43893</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>203</v>
@@ -5248,12 +5242,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="22">
-        <v>43865</v>
+        <v>43894</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>203</v>
@@ -5283,12 +5277,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>159</v>
       </c>
       <c r="B6" s="22">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>163</v>
@@ -5318,12 +5312,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>159</v>
       </c>
       <c r="B7" s="22">
-        <v>43863</v>
+        <v>43892</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>163</v>
@@ -5353,12 +5347,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>159</v>
       </c>
       <c r="B8" s="22">
-        <v>43864</v>
+        <v>43893</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>163</v>
@@ -5388,12 +5382,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>159</v>
       </c>
       <c r="B9" s="22">
-        <v>43865</v>
+        <v>43894</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>163</v>
@@ -5423,12 +5417,12 @@
         <v>890</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="14" t="s">
         <v>182</v>
       </c>
       <c r="B10" s="22">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>205</v>
@@ -5458,12 +5452,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="14" t="s">
         <v>182</v>
       </c>
       <c r="B11" s="22">
-        <v>43863</v>
+        <v>43892</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>205</v>
@@ -5493,12 +5487,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="14" t="s">
         <v>182</v>
       </c>
       <c r="B12" s="22">
-        <v>43864</v>
+        <v>43893</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>205</v>
@@ -5528,12 +5522,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="14" t="s">
         <v>182</v>
       </c>
       <c r="B13" s="22">
-        <v>43865</v>
+        <v>43894</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>205</v>
@@ -5563,12 +5557,12 @@
         <v>890</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="14" t="s">
         <v>181</v>
       </c>
       <c r="B14" s="22">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>118</v>
@@ -5598,12 +5592,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="14" t="s">
         <v>181</v>
       </c>
       <c r="B15" s="22">
-        <v>43863</v>
+        <v>43892</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>118</v>
@@ -5633,12 +5627,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="14" t="s">
         <v>181</v>
       </c>
       <c r="B16" s="22">
-        <v>43864</v>
+        <v>43893</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>118</v>
@@ -5668,12 +5662,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="14" t="s">
         <v>181</v>
       </c>
       <c r="B17" s="22">
-        <v>43865</v>
+        <v>43894</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>118</v>
@@ -5703,12 +5697,12 @@
         <v>890</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="14" t="s">
         <v>158</v>
       </c>
       <c r="B18" s="22">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>205</v>
@@ -5738,12 +5732,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="14" t="s">
         <v>158</v>
       </c>
       <c r="B19" s="22">
-        <v>43863</v>
+        <v>43892</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>205</v>
@@ -5773,12 +5767,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="14" t="s">
         <v>158</v>
       </c>
       <c r="B20" s="22">
-        <v>43864</v>
+        <v>43893</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>205</v>
@@ -5808,12 +5802,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="14" t="s">
         <v>158</v>
       </c>
       <c r="B21" s="22">
-        <v>43865</v>
+        <v>43894</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>205</v>
@@ -5849,16 +5843,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
@@ -5872,12 +5866,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="24">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="C2">
         <v>65</v>
@@ -5886,12 +5880,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="24">
-        <v>43863</v>
+        <v>43892</v>
       </c>
       <c r="C3">
         <v>75</v>
@@ -5900,12 +5894,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="24">
-        <v>43864</v>
+        <v>43893</v>
       </c>
       <c r="C4">
         <v>70</v>
@@ -5914,12 +5908,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="24">
-        <v>43865</v>
+        <v>43894</v>
       </c>
       <c r="C5">
         <v>45</v>
@@ -5928,12 +5922,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="24">
-        <v>43866</v>
+        <v>43895</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -5942,12 +5936,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="25">
-        <v>43862</v>
+      <c r="B7" s="24">
+        <v>43891</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -5956,12 +5950,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="25">
-        <v>43863</v>
+      <c r="B8" s="24">
+        <v>43892</v>
       </c>
       <c r="C8">
         <v>55</v>
@@ -5970,12 +5964,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="25">
-        <v>43864</v>
+      <c r="B9" s="24">
+        <v>43893</v>
       </c>
       <c r="C9">
         <v>60</v>
@@ -5984,12 +5978,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="25">
-        <v>43865</v>
+      <c r="B10" s="24">
+        <v>43894</v>
       </c>
       <c r="C10">
         <v>65</v>
@@ -5998,12 +5992,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="25">
-        <v>43866</v>
+      <c r="B11" s="24">
+        <v>43895</v>
       </c>
       <c r="C11">
         <v>70</v>
@@ -6012,12 +6006,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="25">
-        <v>43862</v>
+      <c r="B12" s="24">
+        <v>43891</v>
       </c>
       <c r="C12">
         <v>30</v>
@@ -6026,12 +6020,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="25">
-        <v>43863</v>
+      <c r="B13" s="24">
+        <v>43892</v>
       </c>
       <c r="C13">
         <v>70</v>
@@ -6040,12 +6034,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="25">
-        <v>43864</v>
+      <c r="B14" s="24">
+        <v>43893</v>
       </c>
       <c r="C14">
         <v>65</v>
@@ -6054,12 +6048,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B15" s="25">
-        <v>43865</v>
+      <c r="B15" s="24">
+        <v>43894</v>
       </c>
       <c r="C15">
         <v>55</v>
@@ -6068,12 +6062,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="25">
-        <v>43866</v>
+      <c r="B16" s="24">
+        <v>43895</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -6082,12 +6076,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B17" s="25">
-        <v>43867</v>
+        <v>43896</v>
       </c>
       <c r="C17">
         <v>45</v>
@@ -6096,12 +6090,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B18" s="26">
-        <v>43862</v>
+      <c r="B18" s="24">
+        <v>43891</v>
       </c>
       <c r="C18">
         <v>75</v>
@@ -6110,12 +6104,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B19" s="26">
-        <v>43863</v>
+      <c r="B19" s="24">
+        <v>43892</v>
       </c>
       <c r="C19">
         <v>75</v>
@@ -6124,12 +6118,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="26">
-        <v>43864</v>
+      <c r="B20" s="24">
+        <v>43893</v>
       </c>
       <c r="C20">
         <v>60</v>
@@ -6138,12 +6132,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B21" s="26">
-        <v>43865</v>
+      <c r="B21" s="24">
+        <v>43894</v>
       </c>
       <c r="C21">
         <v>65</v>
@@ -6152,12 +6146,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="26">
-        <v>43866</v>
+      <c r="B22" s="24">
+        <v>43895</v>
       </c>
       <c r="C22">
         <v>75</v>
@@ -6166,12 +6160,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="26">
-        <v>43862</v>
+      <c r="B23" s="24">
+        <v>43891</v>
       </c>
       <c r="C23">
         <v>90</v>
@@ -6180,12 +6174,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="26">
-        <v>43863</v>
+      <c r="B24" s="24">
+        <v>43892</v>
       </c>
       <c r="C24">
         <v>80</v>
@@ -6194,12 +6188,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="26">
-        <v>43864</v>
+      <c r="B25" s="24">
+        <v>43893</v>
       </c>
       <c r="C25">
         <v>75</v>
@@ -6208,12 +6202,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="26">
-        <v>43865</v>
+      <c r="B26" s="24">
+        <v>43894</v>
       </c>
       <c r="C26">
         <v>65</v>
@@ -6222,12 +6216,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B27" s="26">
-        <v>43866</v>
+      <c r="B27" s="24">
+        <v>43895</v>
       </c>
       <c r="C27">
         <v>70</v>

--- a/server/client_data.xlsx
+++ b/server/client_data.xlsx
@@ -1,23 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\dynamic_ui\server\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B235788-79A9-47F0-BA5C-12D26D9027EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="20730" windowHeight="11475" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Securities" sheetId="1" r:id="rId1"/>
     <sheet name="M2M" sheetId="9" r:id="rId2"/>
-    <sheet name="UCC" sheetId="3" r:id="rId3"/>
-    <sheet name="NCLAlertFile" sheetId="4" r:id="rId4"/>
-    <sheet name="Trades" sheetId="5" r:id="rId5"/>
-    <sheet name="HoldingStatement" sheetId="6" r:id="rId6"/>
-    <sheet name="TopTradingStocks" sheetId="7" r:id="rId7"/>
-    <sheet name="Pledged" sheetId="8" r:id="rId8"/>
+    <sheet name="SebiAlerts" sheetId="10" r:id="rId3"/>
+    <sheet name="TradeDiscrepancyReport" sheetId="11" r:id="rId4"/>
+    <sheet name="UCC" sheetId="3" r:id="rId5"/>
+    <sheet name="NCLAlertFile" sheetId="4" r:id="rId6"/>
+    <sheet name="Trades" sheetId="5" r:id="rId7"/>
+    <sheet name="HoldingStatement" sheetId="6" r:id="rId8"/>
+    <sheet name="TopTradingStocks" sheetId="7" r:id="rId9"/>
+    <sheet name="Pledged" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -26,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="275">
   <si>
     <t>Client Name</t>
   </si>
@@ -833,13 +847,31 @@
   </si>
   <si>
     <t>whdbqiwghv</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Uniform KYC</t>
+  </si>
+  <si>
+    <t>AML/CFT Circulars</t>
+  </si>
+  <si>
+    <t>scrip</t>
+  </si>
+  <si>
+    <t>TMVolume</t>
+  </si>
+  <si>
+    <t>CMVolume</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -868,6 +900,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -922,7 +960,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -955,6 +993,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -965,6 +1004,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1256,14 +1298,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3:Z6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="7" bestFit="1" customWidth="1"/>
@@ -1287,7 +1327,7 @@
     <col min="27" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="6" customFormat="1">
+    <row r="1" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
@@ -1373,7 +1413,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="6" customFormat="1">
+    <row r="2" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
@@ -1459,7 +1499,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>159</v>
       </c>
@@ -1545,7 +1585,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>181</v>
       </c>
@@ -1631,7 +1671,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>182</v>
       </c>
@@ -1717,7 +1757,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>158</v>
       </c>
@@ -1805,26 +1845,419 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="24">
+        <v>43891</v>
+      </c>
+      <c r="C2">
+        <v>65</v>
+      </c>
+      <c r="D2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="24">
+        <v>43892</v>
+      </c>
+      <c r="C3">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="24">
+        <v>43893</v>
+      </c>
+      <c r="C4">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="24">
+        <v>43894</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="24">
+        <v>43895</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="24">
+        <v>43891</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="24">
+        <v>43892</v>
+      </c>
+      <c r="C8">
+        <v>55</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="24">
+        <v>43893</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="24">
+        <v>43894</v>
+      </c>
+      <c r="C10">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="24">
+        <v>43895</v>
+      </c>
+      <c r="C11">
+        <v>70</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="24">
+        <v>43891</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="24">
+        <v>43892</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="24">
+        <v>43893</v>
+      </c>
+      <c r="C14">
+        <v>65</v>
+      </c>
+      <c r="D14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="24">
+        <v>43894</v>
+      </c>
+      <c r="C15">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="24">
+        <v>43895</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="25">
+        <v>43896</v>
+      </c>
+      <c r="C17">
+        <v>45</v>
+      </c>
+      <c r="D17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="24">
+        <v>43891</v>
+      </c>
+      <c r="C18">
+        <v>75</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="24">
+        <v>43892</v>
+      </c>
+      <c r="C19">
+        <v>75</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" s="24">
+        <v>43893</v>
+      </c>
+      <c r="C20">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="24">
+        <v>43894</v>
+      </c>
+      <c r="C21">
+        <v>65</v>
+      </c>
+      <c r="D21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="24">
+        <v>43895</v>
+      </c>
+      <c r="C22">
+        <v>75</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="24">
+        <v>43891</v>
+      </c>
+      <c r="C23">
+        <v>90</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="24">
+        <v>43892</v>
+      </c>
+      <c r="C24">
+        <v>80</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="24">
+        <v>43893</v>
+      </c>
+      <c r="C25">
+        <v>75</v>
+      </c>
+      <c r="D25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="24">
+        <v>43894</v>
+      </c>
+      <c r="C26">
+        <v>65</v>
+      </c>
+      <c r="D26">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="24">
+        <v>43895</v>
+      </c>
+      <c r="C27">
+        <v>70</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
@@ -1837,7 +2270,7 @@
     <col min="9" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
@@ -1863,7 +2296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1889,7 +2322,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1915,7 +2348,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1941,7 +2374,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -1967,7 +2400,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -1993,7 +2426,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -2019,7 +2452,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -2045,7 +2478,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -2071,7 +2504,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2</v>
       </c>
@@ -2097,7 +2530,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>2</v>
       </c>
@@ -2123,7 +2556,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>2</v>
       </c>
@@ -2149,7 +2582,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>2</v>
       </c>
@@ -2175,7 +2608,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>2</v>
       </c>
@@ -2201,7 +2634,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>2</v>
       </c>
@@ -2227,7 +2660,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>2</v>
       </c>
@@ -2253,7 +2686,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>2</v>
       </c>
@@ -2279,7 +2712,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>2</v>
       </c>
@@ -2305,7 +2738,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>2</v>
       </c>
@@ -2331,7 +2764,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>3</v>
       </c>
@@ -2357,7 +2790,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>3</v>
       </c>
@@ -2383,7 +2816,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>3</v>
       </c>
@@ -2409,7 +2842,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>3</v>
       </c>
@@ -2435,7 +2868,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>3</v>
       </c>
@@ -2461,7 +2894,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>3</v>
       </c>
@@ -2487,7 +2920,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>3</v>
       </c>
@@ -2513,7 +2946,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>3</v>
       </c>
@@ -2539,7 +2972,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>3</v>
       </c>
@@ -2565,7 +2998,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>3</v>
       </c>
@@ -2591,7 +3024,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>4</v>
       </c>
@@ -2617,7 +3050,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>4</v>
       </c>
@@ -2643,7 +3076,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>4</v>
       </c>
@@ -2669,7 +3102,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>4</v>
       </c>
@@ -2695,7 +3128,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>4</v>
       </c>
@@ -2721,7 +3154,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>4</v>
       </c>
@@ -2747,7 +3180,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>4</v>
       </c>
@@ -2773,7 +3206,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>4</v>
       </c>
@@ -2799,7 +3232,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>4</v>
       </c>
@@ -2825,7 +3258,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>4</v>
       </c>
@@ -2851,7 +3284,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>4</v>
       </c>
@@ -2877,7 +3310,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>4</v>
       </c>
@@ -2903,7 +3336,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>4</v>
       </c>
@@ -2929,7 +3362,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>5</v>
       </c>
@@ -2955,7 +3388,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>5</v>
       </c>
@@ -2981,7 +3414,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>5</v>
       </c>
@@ -3007,7 +3440,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>5</v>
       </c>
@@ -3033,7 +3466,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>5</v>
       </c>
@@ -3059,7 +3492,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>5</v>
       </c>
@@ -3085,7 +3518,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>5</v>
       </c>
@@ -3111,7 +3544,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>5</v>
       </c>
@@ -3137,7 +3570,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>5</v>
       </c>
@@ -3163,7 +3596,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>5</v>
       </c>
@@ -3189,7 +3622,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>5</v>
       </c>
@@ -3215,7 +3648,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>5</v>
       </c>
@@ -3241,7 +3674,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>5</v>
       </c>
@@ -3267,16 +3700,16 @@
         <v>208</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F56" s="14"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F57" s="14"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F58" s="14"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F59" s="14"/>
     </row>
   </sheetData>
@@ -3286,16 +3719,368 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6BB7CC-18E7-4EE4-B53B-491E5F464849}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="16">
+        <v>43833</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="16">
+        <v>43833</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="16">
+        <v>43833</v>
+      </c>
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="16">
+        <v>43833</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="16">
+        <v>43833</v>
+      </c>
+      <c r="C6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="16">
+        <v>43833</v>
+      </c>
+      <c r="C7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="16">
+        <v>43833</v>
+      </c>
+      <c r="C8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="16">
+        <v>43833</v>
+      </c>
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="16">
+        <v>43833</v>
+      </c>
+      <c r="C10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="16">
+        <v>43833</v>
+      </c>
+      <c r="C11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD41529-81AB-43AC-A8C7-B78D0C3023DE}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>43833</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2">
+        <v>1500</v>
+      </c>
+      <c r="E2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>43833</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>450</v>
+      </c>
+      <c r="E3">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>43834</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4">
+        <v>650</v>
+      </c>
+      <c r="E4">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>43835</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>43836</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6">
+        <v>846</v>
+      </c>
+      <c r="E6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>43837</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7">
+        <v>642</v>
+      </c>
+      <c r="E7">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>43838</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8">
+        <v>624</v>
+      </c>
+      <c r="E8">
+        <v>1365.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>43839</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9">
+        <v>3150</v>
+      </c>
+      <c r="E9">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>43840</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10">
+        <v>332</v>
+      </c>
+      <c r="E10">
+        <v>1236.4000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>43841</v>
+      </c>
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11">
+        <v>465</v>
+      </c>
+      <c r="E11">
+        <v>642</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BS1"/>
   <sheetViews>
     <sheetView topLeftCell="BN1" workbookViewId="0">
       <selection activeCell="BQ26" sqref="BQ26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:71">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -3491,15 +4276,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="L1" sqref="L1:N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -3539,7 +4324,7 @@
     <col min="36" max="36" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3649,7 +4434,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -3759,7 +4544,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -3869,7 +4654,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -3979,7 +4764,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -4089,7 +4874,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -4204,15 +4989,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -4230,7 +5015,7 @@
     <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4274,7 +5059,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>43831</v>
       </c>
@@ -4320,7 +5105,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>43832</v>
       </c>
@@ -4366,7 +5151,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>43833</v>
       </c>
@@ -4412,7 +5197,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>43831</v>
       </c>
@@ -4458,7 +5243,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>43832</v>
       </c>
@@ -4504,7 +5289,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>43831</v>
       </c>
@@ -4550,7 +5335,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>43832</v>
       </c>
@@ -4596,7 +5381,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>43834</v>
       </c>
@@ -4642,7 +5427,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>43835</v>
       </c>
@@ -4688,7 +5473,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>43832</v>
       </c>
@@ -4734,7 +5519,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>43833</v>
       </c>
@@ -4780,7 +5565,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>43831</v>
       </c>
@@ -4826,7 +5611,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>43832</v>
       </c>
@@ -4872,7 +5657,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>43837</v>
       </c>
@@ -4918,7 +5703,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>43836</v>
       </c>
@@ -4970,15 +5755,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
@@ -4994,7 +5779,7 @@
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -5038,7 +5823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -5087,22 +5872,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -5137,7 +5922,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -5172,7 +5957,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -5207,7 +5992,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -5242,7 +6027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -5277,7 +6062,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>159</v>
       </c>
@@ -5312,7 +6097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>159</v>
       </c>
@@ -5347,7 +6132,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>159</v>
       </c>
@@ -5382,7 +6167,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -5417,7 +6202,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>182</v>
       </c>
@@ -5452,7 +6237,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>182</v>
       </c>
@@ -5487,7 +6272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>182</v>
       </c>
@@ -5522,7 +6307,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>182</v>
       </c>
@@ -5557,7 +6342,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>181</v>
       </c>
@@ -5592,7 +6377,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>181</v>
       </c>
@@ -5627,7 +6412,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>181</v>
       </c>
@@ -5662,7 +6447,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>181</v>
       </c>
@@ -5697,7 +6482,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>158</v>
       </c>
@@ -5732,7 +6517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>158</v>
       </c>
@@ -5767,7 +6552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>158</v>
       </c>
@@ -5802,7 +6587,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>158</v>
       </c>
@@ -5835,399 +6620,6 @@
       </c>
       <c r="K21" s="19">
         <v>890</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="24">
-        <v>43891</v>
-      </c>
-      <c r="C2">
-        <v>65</v>
-      </c>
-      <c r="D2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="24">
-        <v>43892</v>
-      </c>
-      <c r="C3">
-        <v>75</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="24">
-        <v>43893</v>
-      </c>
-      <c r="C4">
-        <v>70</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="24">
-        <v>43894</v>
-      </c>
-      <c r="C5">
-        <v>45</v>
-      </c>
-      <c r="D5">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="24">
-        <v>43895</v>
-      </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="24">
-        <v>43891</v>
-      </c>
-      <c r="C7">
-        <v>50</v>
-      </c>
-      <c r="D7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="24">
-        <v>43892</v>
-      </c>
-      <c r="C8">
-        <v>55</v>
-      </c>
-      <c r="D8">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="24">
-        <v>43893</v>
-      </c>
-      <c r="C9">
-        <v>60</v>
-      </c>
-      <c r="D9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="24">
-        <v>43894</v>
-      </c>
-      <c r="C10">
-        <v>65</v>
-      </c>
-      <c r="D10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" s="24">
-        <v>43895</v>
-      </c>
-      <c r="C11">
-        <v>70</v>
-      </c>
-      <c r="D11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" s="24">
-        <v>43891</v>
-      </c>
-      <c r="C12">
-        <v>30</v>
-      </c>
-      <c r="D12">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" s="24">
-        <v>43892</v>
-      </c>
-      <c r="C13">
-        <v>70</v>
-      </c>
-      <c r="D13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="24">
-        <v>43893</v>
-      </c>
-      <c r="C14">
-        <v>65</v>
-      </c>
-      <c r="D14">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" s="24">
-        <v>43894</v>
-      </c>
-      <c r="C15">
-        <v>55</v>
-      </c>
-      <c r="D15">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="24">
-        <v>43895</v>
-      </c>
-      <c r="C16">
-        <v>50</v>
-      </c>
-      <c r="D16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" s="25">
-        <v>43896</v>
-      </c>
-      <c r="C17">
-        <v>45</v>
-      </c>
-      <c r="D17">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" s="24">
-        <v>43891</v>
-      </c>
-      <c r="C18">
-        <v>75</v>
-      </c>
-      <c r="D18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B19" s="24">
-        <v>43892</v>
-      </c>
-      <c r="C19">
-        <v>75</v>
-      </c>
-      <c r="D19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B20" s="24">
-        <v>43893</v>
-      </c>
-      <c r="C20">
-        <v>60</v>
-      </c>
-      <c r="D20">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" s="24">
-        <v>43894</v>
-      </c>
-      <c r="C21">
-        <v>65</v>
-      </c>
-      <c r="D21">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B22" s="24">
-        <v>43895</v>
-      </c>
-      <c r="C22">
-        <v>75</v>
-      </c>
-      <c r="D22">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23" s="24">
-        <v>43891</v>
-      </c>
-      <c r="C23">
-        <v>90</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B24" s="24">
-        <v>43892</v>
-      </c>
-      <c r="C24">
-        <v>80</v>
-      </c>
-      <c r="D24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" s="24">
-        <v>43893</v>
-      </c>
-      <c r="C25">
-        <v>75</v>
-      </c>
-      <c r="D25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26" s="24">
-        <v>43894</v>
-      </c>
-      <c r="C26">
-        <v>65</v>
-      </c>
-      <c r="D26">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B27" s="24">
-        <v>43895</v>
-      </c>
-      <c r="C27">
-        <v>70</v>
-      </c>
-      <c r="D27">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
